--- a/Stardom Match Guide.xlsx
+++ b/Stardom Match Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2G3918897\Documents\Projects\Stardom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444D24AC-F5B8-4A9E-AD9F-546CEDADC249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BB66EB-292C-48DC-88C9-2DCBF617F9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{0008F500-85B8-454E-8683-1FB592B84773}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11421" uniqueCount="4810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11435" uniqueCount="4813">
   <si>
     <t>2021.01.02</t>
   </si>
@@ -14464,10 +14464,19 @@
     <t>Hanan</t>
   </si>
   <si>
+    <t>Starlight Kid</t>
+  </si>
+  <si>
     <t>Thekla</t>
   </si>
   <si>
     <t>Mayu Iwatani</t>
+  </si>
+  <si>
+    <t>AZM</t>
+  </si>
+  <si>
+    <t>Natsupoi</t>
   </si>
 </sst>
 </file>
@@ -14654,7 +14663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -14714,6 +14723,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -15032,8 +15042,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G2129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A709" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G2085" sqref="G2085"/>
+    <sheetView tabSelected="1" topLeftCell="A762" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G2130" sqref="G2130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16168,7 +16178,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="22" t="s">
         <v>1978</v>
       </c>
@@ -16186,7 +16196,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="22" t="s">
         <v>1986</v>
       </c>
@@ -16202,7 +16212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="22" t="s">
         <v>1986</v>
       </c>
@@ -16218,7 +16228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="22" t="s">
         <v>1986</v>
       </c>
@@ -16234,7 +16244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="14" t="s">
         <v>1993</v>
       </c>
@@ -16254,7 +16264,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="22" t="s">
         <v>1998</v>
       </c>
@@ -16272,7 +16282,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="22" t="s">
         <v>2001</v>
       </c>
@@ -16288,7 +16298,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" ht="15.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="22" t="s">
         <v>2001</v>
       </c>
@@ -16304,7 +16314,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="14" t="s">
         <v>2007</v>
       </c>
@@ -16324,7 +16334,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="14" t="s">
         <v>2010</v>
       </c>
@@ -16452,7 +16462,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>2022</v>
       </c>
@@ -16472,7 +16482,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="14" t="s">
         <v>2027</v>
       </c>
@@ -16524,7 +16534,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>2031</v>
       </c>
@@ -16544,7 +16554,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="14" t="s">
         <v>2038</v>
       </c>
@@ -16790,7 +16800,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="22" t="s">
         <v>2068</v>
       </c>
@@ -16910,7 +16920,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="14" t="s">
         <v>2093</v>
       </c>
@@ -16930,7 +16940,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="14" t="s">
         <v>2096</v>
       </c>
@@ -16968,7 +16978,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="14" t="s">
         <v>2102</v>
       </c>
@@ -17008,7 +17018,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>2102</v>
       </c>
@@ -17464,7 +17474,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="14" t="s">
         <v>2167</v>
       </c>
@@ -17558,7 +17568,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="6" t="s">
         <v>2182</v>
       </c>
@@ -17708,7 +17718,7 @@
       </c>
       <c r="F153" s="8"/>
     </row>
-    <row r="154" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>2205</v>
       </c>
@@ -18030,7 +18040,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="6" t="s">
         <v>2230</v>
       </c>
@@ -18136,7 +18146,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="6" t="s">
         <v>2252</v>
       </c>
@@ -18284,7 +18294,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="14" t="s">
         <v>2267</v>
       </c>
@@ -18554,7 +18564,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="6" t="s">
         <v>2300</v>
       </c>
@@ -18812,7 +18822,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
         <v>2341</v>
       </c>
@@ -18852,7 +18862,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="6" t="s">
         <v>2341</v>
       </c>
@@ -18988,7 +18998,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="6" t="s">
         <v>2364</v>
       </c>
@@ -19140,7 +19150,7 @@
         <v>2386</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="14" t="s">
         <v>2383</v>
       </c>
@@ -19554,7 +19564,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="6" t="s">
         <v>2440</v>
       </c>
@@ -19758,7 +19768,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" s="14" t="s">
         <v>2468</v>
       </c>
@@ -19778,7 +19788,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="1" t="s">
         <v>2473</v>
       </c>
@@ -19818,7 +19828,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271" s="6" t="s">
         <v>2473</v>
       </c>
@@ -19972,7 +19982,7 @@
         <v>2494</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A279" s="14" t="s">
         <v>2491</v>
       </c>
@@ -20790,7 +20800,7 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A320" s="1" t="s">
         <v>2579</v>
       </c>
@@ -21238,7 +21248,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A345" s="22" t="s">
         <v>2652</v>
       </c>
@@ -21356,7 +21366,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A352" s="1" t="s">
         <v>2676</v>
       </c>
@@ -21678,7 +21688,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A369" s="1" t="s">
         <v>2717</v>
       </c>
@@ -22532,7 +22542,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A414" s="6" t="s">
         <v>2825</v>
       </c>
@@ -23326,7 +23336,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A455" s="6" t="s">
         <v>2935</v>
       </c>
@@ -23636,7 +23646,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A471" s="6" t="s">
         <v>2976</v>
       </c>
@@ -23880,7 +23890,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A484" s="14" t="s">
         <v>3007</v>
       </c>
@@ -24768,7 +24778,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A529" s="1" t="s">
         <v>3098</v>
       </c>
@@ -24806,7 +24816,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A531" s="1" t="s">
         <v>3108</v>
       </c>
@@ -25178,7 +25188,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A550" s="1" t="s">
         <v>3148</v>
       </c>
@@ -25658,7 +25668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A575" s="1" t="s">
         <v>3211</v>
       </c>
@@ -25846,7 +25856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A585" s="1" t="s">
         <v>3242</v>
       </c>
@@ -26156,7 +26166,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A601" s="6" t="s">
         <v>3280</v>
       </c>
@@ -26256,7 +26266,7 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A606" s="14" t="s">
         <v>3285</v>
       </c>
@@ -26386,7 +26396,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A613" s="14" t="s">
         <v>3307</v>
       </c>
@@ -26610,7 +26620,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A625" s="6" t="s">
         <v>3340</v>
       </c>
@@ -26896,7 +26906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A640" s="6" t="s">
         <v>3372</v>
       </c>
@@ -27214,7 +27224,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A657" s="1" t="s">
         <v>3414</v>
       </c>
@@ -27290,7 +27300,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="661" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A661" s="1" t="s">
         <v>3431</v>
       </c>
@@ -27978,7 +27988,7 @@
         <v>3507</v>
       </c>
     </row>
-    <row r="697" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A697" s="14" t="s">
         <v>3504</v>
       </c>
@@ -28036,7 +28046,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A700" s="1" t="s">
         <v>3514</v>
       </c>
@@ -28210,7 +28220,7 @@
         <v>3538</v>
       </c>
     </row>
-    <row r="709" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A709" s="6" t="s">
         <v>3535</v>
       </c>
@@ -28322,7 +28332,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="715" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A715" s="1" t="s">
         <v>3550</v>
       </c>
@@ -28644,7 +28654,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="732" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A732" s="1" t="s">
         <v>3592</v>
       </c>
@@ -28664,7 +28674,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A733" s="6" t="s">
         <v>3592</v>
       </c>
@@ -29202,7 +29212,7 @@
         <v>3668</v>
       </c>
     </row>
-    <row r="762" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A762" s="6" t="s">
         <v>3665</v>
       </c>
@@ -29320,7 +29330,7 @@
         <v>3677</v>
       </c>
     </row>
-    <row r="768" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A768" s="6" t="s">
         <v>3674</v>
       </c>
@@ -29524,7 +29534,7 @@
         <v>3707</v>
       </c>
     </row>
-    <row r="779" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A779" s="1" t="s">
         <v>3703</v>
       </c>
@@ -29584,7 +29594,7 @@
         <v>3707</v>
       </c>
     </row>
-    <row r="782" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A782" s="6" t="s">
         <v>3703</v>
       </c>
@@ -31178,7 +31188,7 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="863" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A863" s="1" t="s">
         <v>3870</v>
       </c>
@@ -31316,7 +31326,7 @@
         <v>3883</v>
       </c>
     </row>
-    <row r="870" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A870" s="6" t="s">
         <v>3881</v>
       </c>
@@ -31704,7 +31714,7 @@
         <v>3931</v>
       </c>
     </row>
-    <row r="890" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A890" s="6" t="s">
         <v>3928</v>
       </c>
@@ -32918,7 +32928,7 @@
         <v>4077</v>
       </c>
     </row>
-    <row r="954" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A954" s="14" t="s">
         <v>4074</v>
       </c>
@@ -33230,7 +33240,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="971" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="971" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A971" s="1" t="s">
         <v>4117</v>
       </c>
@@ -33324,7 +33334,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="976" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A976" s="1" t="s">
         <v>4131</v>
       </c>
@@ -33454,7 +33464,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="983" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="983" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A983" s="1" t="s">
         <v>4144</v>
       </c>
@@ -33666,7 +33676,7 @@
         <v>4164</v>
       </c>
     </row>
-    <row r="994" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="994" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A994" s="14" t="s">
         <v>4161</v>
       </c>
@@ -33704,7 +33714,7 @@
         <v>4178</v>
       </c>
     </row>
-    <row r="996" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A996" s="1" t="s">
         <v>4175</v>
       </c>
@@ -33896,7 +33906,7 @@
         <v>4191</v>
       </c>
     </row>
-    <row r="1006" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1006" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1006" s="1" t="s">
         <v>4199</v>
       </c>
@@ -34096,7 +34106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1017" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1017" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1017" s="6" t="s">
         <v>4219</v>
       </c>
@@ -35028,7 +35038,7 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="1066" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1066" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1066" s="6" t="s">
         <v>4328</v>
       </c>
@@ -35084,7 +35094,7 @@
         <v>4338</v>
       </c>
     </row>
-    <row r="1069" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1069" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1069" s="1" t="s">
         <v>4336</v>
       </c>
@@ -36574,7 +36584,7 @@
         <v>4466</v>
       </c>
     </row>
-    <row r="1145" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1145" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1145" s="14" t="s">
         <v>4478</v>
       </c>
@@ -36732,7 +36742,7 @@
         <v>4481</v>
       </c>
     </row>
-    <row r="1153" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1153" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1153" s="14" t="s">
         <v>4478</v>
       </c>
@@ -37170,7 +37180,7 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="1176" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1176" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1176" s="14" t="s">
         <v>4533</v>
       </c>
@@ -37860,7 +37870,7 @@
         <v>4612</v>
       </c>
     </row>
-    <row r="1212" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1212" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1212" s="1" t="s">
         <v>4609</v>
       </c>
@@ -37938,7 +37948,7 @@
         <v>4612</v>
       </c>
     </row>
-    <row r="1216" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1216" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1216" s="14" t="s">
         <v>4609</v>
       </c>
@@ -38718,7 +38728,7 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="1259" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1259" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1259" s="6" t="s">
         <v>4706</v>
       </c>
@@ -38778,7 +38788,7 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="1262" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1262" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1262" s="14" t="s">
         <v>4706</v>
       </c>
@@ -39401,7 +39411,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="1296" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1296" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1296" s="6" t="s">
         <v>62</v>
       </c>
@@ -39419,6 +39429,9 @@
       </c>
       <c r="F1296" s="11" t="s">
         <v>66</v>
+      </c>
+      <c r="G1296" t="s">
+        <v>4811</v>
       </c>
     </row>
     <row r="1297" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -39480,7 +39493,7 @@
         <v>4801</v>
       </c>
     </row>
-    <row r="1300" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1300" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1300" s="6" t="s">
         <v>62</v>
       </c>
@@ -40821,7 +40834,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="1372" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1372" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1372" s="14" t="s">
         <v>252</v>
       </c>
@@ -40839,6 +40852,9 @@
       </c>
       <c r="F1372" s="18" t="s">
         <v>255</v>
+      </c>
+      <c r="G1372" t="s">
+        <v>4812</v>
       </c>
     </row>
     <row r="1373" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -40938,7 +40954,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="1378" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1378" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1378" s="14" t="s">
         <v>252</v>
       </c>
@@ -41517,7 +41533,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="1409" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1409" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1409" s="6" t="s">
         <v>331</v>
       </c>
@@ -41535,7 +41551,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="1410" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1410" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1410" s="6" t="s">
         <v>331</v>
       </c>
@@ -41553,7 +41569,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="1411" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1411" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1411" s="14" t="s">
         <v>331</v>
       </c>
@@ -41573,7 +41589,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="1412" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1412" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1412" s="1" t="s">
         <v>345</v>
       </c>
@@ -41591,7 +41607,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1413" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1413" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1413" s="1" t="s">
         <v>345</v>
       </c>
@@ -41609,7 +41625,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1414" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1414" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1414" s="6" t="s">
         <v>345</v>
       </c>
@@ -41629,7 +41645,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1415" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1415" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1415" s="1" t="s">
         <v>345</v>
       </c>
@@ -41649,7 +41665,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1416" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1416" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1416" s="14" t="s">
         <v>345</v>
       </c>
@@ -41668,8 +41684,11 @@
       <c r="F1416" s="18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="1417" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G1416" t="s">
+        <v>4812</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1417" s="1" t="s">
         <v>357</v>
       </c>
@@ -41687,7 +41706,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1418" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1418" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1418" s="6" t="s">
         <v>357</v>
       </c>
@@ -41705,7 +41724,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1419" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1419" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1419" s="1" t="s">
         <v>357</v>
       </c>
@@ -41723,7 +41742,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1420" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1420" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1420" s="6" t="s">
         <v>357</v>
       </c>
@@ -41743,7 +41762,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1421" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1421" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1421" s="6" t="s">
         <v>357</v>
       </c>
@@ -41763,7 +41782,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="1422" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1422" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1422" s="1" t="s">
         <v>370</v>
       </c>
@@ -41781,7 +41800,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="1423" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1423" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1423" s="6" t="s">
         <v>370</v>
       </c>
@@ -41799,7 +41818,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="1424" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1424" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1424" s="6" t="s">
         <v>370</v>
       </c>
@@ -41860,7 +41879,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="1427" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1427" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1427" s="14" t="s">
         <v>370</v>
       </c>
@@ -43317,7 +43336,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="1505" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1505" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1505" s="1" t="s">
         <v>555</v>
       </c>
@@ -43335,7 +43354,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="1506" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1506" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1506" s="6" t="s">
         <v>555</v>
       </c>
@@ -43353,7 +43372,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="1507" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1507" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1507" s="6" t="s">
         <v>555</v>
       </c>
@@ -43371,7 +43390,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="1508" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1508" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1508" s="1" t="s">
         <v>555</v>
       </c>
@@ -43389,7 +43408,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="1509" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1509" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1509" s="1" t="s">
         <v>568</v>
       </c>
@@ -43407,7 +43426,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="1510" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1510" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1510" s="1" t="s">
         <v>568</v>
       </c>
@@ -43425,7 +43444,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="1511" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1511" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1511" s="14" t="s">
         <v>568</v>
       </c>
@@ -43443,7 +43462,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="1512" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1512" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1512" s="6" t="s">
         <v>568</v>
       </c>
@@ -43461,7 +43480,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="1513" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1513" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1513" s="6" t="s">
         <v>568</v>
       </c>
@@ -43479,7 +43498,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="1514" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1514" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1514" s="1" t="s">
         <v>578</v>
       </c>
@@ -43499,7 +43518,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="1515" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1515" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1515" s="6" t="s">
         <v>578</v>
       </c>
@@ -43519,7 +43538,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="1516" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1516" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1516" s="1" t="s">
         <v>578</v>
       </c>
@@ -43539,7 +43558,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="1517" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1517" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1517" s="1" t="s">
         <v>578</v>
       </c>
@@ -43557,7 +43576,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="1518" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1518" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1518" s="1" t="s">
         <v>578</v>
       </c>
@@ -43576,8 +43595,11 @@
       <c r="F1518" s="5" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="1519" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G1518" t="s">
+        <v>4812</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1519" s="1" t="s">
         <v>578</v>
       </c>
@@ -43595,7 +43617,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="1520" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1520" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1520" s="6" t="s">
         <v>578</v>
       </c>
@@ -43731,7 +43753,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="1527" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1527" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1527" s="14" t="s">
         <v>596</v>
       </c>
@@ -44400,7 +44422,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="1563" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1563" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1563" s="1" t="s">
         <v>682</v>
       </c>
@@ -46259,7 +46281,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="1664" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1664" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1664" s="14" t="s">
         <v>897</v>
       </c>
@@ -46277,6 +46299,9 @@
       </c>
       <c r="F1664" s="18" t="s">
         <v>900</v>
+      </c>
+      <c r="G1664" t="s">
+        <v>4808</v>
       </c>
     </row>
     <row r="1665" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -48075,7 +48100,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="1757" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1757" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1757" s="1" t="s">
         <v>1092</v>
       </c>
@@ -48093,6 +48118,9 @@
       </c>
       <c r="F1757" s="12" t="s">
         <v>1095</v>
+      </c>
+      <c r="G1757" t="s">
+        <v>4808</v>
       </c>
     </row>
     <row r="1758" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -48181,7 +48209,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="1762" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1762" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1762" s="14" t="s">
         <v>1092</v>
       </c>
@@ -48739,7 +48767,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="1791" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1791" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1791" s="6" t="s">
         <v>1161</v>
       </c>
@@ -48757,6 +48785,9 @@
       </c>
       <c r="F1791" s="11" t="s">
         <v>1163</v>
+      </c>
+      <c r="G1791" t="s">
+        <v>4808</v>
       </c>
     </row>
     <row r="1792" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -48805,7 +48836,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="1794" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1794" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1794" s="14" t="s">
         <v>1161</v>
       </c>
@@ -49550,7 +49581,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="1834" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1834" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1834" s="6" t="s">
         <v>1255</v>
       </c>
@@ -49568,6 +49599,9 @@
       </c>
       <c r="F1834" s="11" t="s">
         <v>1258</v>
+      </c>
+      <c r="G1834" t="s">
+        <v>4808</v>
       </c>
     </row>
     <row r="1835" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -49616,7 +49650,7 @@
         <v>4802</v>
       </c>
     </row>
-    <row r="1837" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1837" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1837" s="14" t="s">
         <v>1255</v>
       </c>
@@ -50270,7 +50304,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="1872" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1872" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1872" s="14" t="s">
         <v>1346</v>
       </c>
@@ -50288,6 +50322,9 @@
       </c>
       <c r="F1872" s="18" t="s">
         <v>1349</v>
+      </c>
+      <c r="G1872" t="s">
+        <v>4808</v>
       </c>
     </row>
     <row r="1873" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -50351,7 +50388,7 @@
         <v>4803</v>
       </c>
     </row>
-    <row r="1876" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1876" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1876" s="14" t="s">
         <v>1346</v>
       </c>
@@ -51179,7 +51216,7 @@
         <v>1461</v>
       </c>
       <c r="G1920" t="s">
-        <v>4808</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="1921" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -51260,7 +51297,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="1925" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1925" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1925" s="14" t="s">
         <v>1458</v>
       </c>
@@ -51355,7 +51392,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="1930" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1930" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1930" s="14" t="s">
         <v>1474</v>
       </c>
@@ -51373,6 +51410,9 @@
       </c>
       <c r="F1930" s="18" t="s">
         <v>700</v>
+      </c>
+      <c r="G1930" t="s">
+        <v>4808</v>
       </c>
     </row>
     <row r="1931" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -51665,7 +51705,7 @@
         <v>148</v>
       </c>
       <c r="G1946" t="s">
-        <v>4808</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="1947" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -51999,7 +52039,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="1965" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1965" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1965" s="14" t="s">
         <v>1544</v>
       </c>
@@ -52017,6 +52057,9 @@
       </c>
       <c r="F1965" s="18" t="s">
         <v>1548</v>
+      </c>
+      <c r="G1965" t="s">
+        <v>4811</v>
       </c>
     </row>
     <row r="1966" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -52893,7 +52936,7 @@
         <v>1655</v>
       </c>
       <c r="G2013" t="s">
-        <v>4808</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="2014" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -53035,7 +53078,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="2021" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2021" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2021" s="14" t="s">
         <v>1666</v>
       </c>
@@ -53135,7 +53178,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="2026" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2026" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2026" s="6" t="s">
         <v>1686</v>
       </c>
@@ -53153,6 +53196,9 @@
       </c>
       <c r="F2026" s="11" t="s">
         <v>1689</v>
+      </c>
+      <c r="G2026" t="s">
+        <v>4811</v>
       </c>
     </row>
     <row r="2027" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -53211,7 +53257,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="2030" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2030" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2030" s="14" t="s">
         <v>1686</v>
       </c>
@@ -54231,7 +54277,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="2083" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2083" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2083" s="1" t="s">
         <v>1799</v>
       </c>
@@ -54249,6 +54295,9 @@
       </c>
       <c r="F2083" s="12" t="s">
         <v>1802</v>
+      </c>
+      <c r="G2083" t="s">
+        <v>4811</v>
       </c>
     </row>
     <row r="2084" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -54271,7 +54320,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="2085" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2085" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2085" s="14" t="s">
         <v>1799</v>
       </c>
@@ -54592,7 +54641,7 @@
         <v>4759</v>
       </c>
       <c r="G2104" t="s">
-        <v>4809</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="2105" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -54719,7 +54768,7 @@
         <v>4767</v>
       </c>
     </row>
-    <row r="2113" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2113" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2113" s="22" t="s">
         <v>4772</v>
       </c>
@@ -54733,7 +54782,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="2114" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2114" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2114" s="22" t="s">
         <v>4772</v>
       </c>
@@ -54749,7 +54798,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="2115" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2115" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2115" s="22" t="s">
         <v>4772</v>
       </c>
@@ -54763,7 +54812,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="2116" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2116" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2116" s="22" t="s">
         <v>4772</v>
       </c>
@@ -54777,7 +54826,7 @@
         <v>4774</v>
       </c>
     </row>
-    <row r="2117" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2117" s="22" t="s">
         <v>4772</v>
       </c>
@@ -54792,8 +54841,11 @@
       <c r="F2117" s="25" t="s">
         <v>4774</v>
       </c>
-    </row>
-    <row r="2118" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G2117" s="35" t="s">
+        <v>4811</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2118" s="22" t="s">
         <v>4779</v>
       </c>
@@ -54807,7 +54859,7 @@
         <v>4781</v>
       </c>
     </row>
-    <row r="2119" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2119" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2119" s="22" t="s">
         <v>4779</v>
       </c>
@@ -54821,7 +54873,7 @@
         <v>4781</v>
       </c>
     </row>
-    <row r="2120" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2120" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2120" s="22" t="s">
         <v>4779</v>
       </c>
@@ -54835,7 +54887,7 @@
         <v>4781</v>
       </c>
     </row>
-    <row r="2121" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2121" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2121" s="22" t="s">
         <v>4779</v>
       </c>
@@ -54849,7 +54901,7 @@
         <v>4781</v>
       </c>
     </row>
-    <row r="2122" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2122" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2122" s="22" t="s">
         <v>4779</v>
       </c>
@@ -54863,7 +54915,7 @@
         <v>4781</v>
       </c>
     </row>
-    <row r="2123" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2123" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2123" s="22" t="s">
         <v>4779</v>
       </c>
@@ -54877,7 +54929,7 @@
         <v>4781</v>
       </c>
     </row>
-    <row r="2124" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2124" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2124" s="22" t="s">
         <v>4787</v>
       </c>
@@ -54891,7 +54943,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="2125" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2125" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2125" s="22" t="s">
         <v>4787</v>
       </c>
@@ -54905,7 +54957,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="2126" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2126" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2126" s="22" t="s">
         <v>4787</v>
       </c>
@@ -54919,7 +54971,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="2127" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2127" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2127" s="22" t="s">
         <v>4787</v>
       </c>
@@ -54935,7 +54987,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="2128" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2128" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2128" s="22" t="s">
         <v>4787</v>
       </c>
@@ -54971,13 +55023,9 @@
   <autoFilter ref="A1:G2129" xr:uid="{C8DE85C4-A2A9-433F-9184-27961FEC0043}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Red Belt"/>
-        <filter val="Red Belt &amp; SWA Belt"/>
-        <filter val="Red Belt Tournament Final"/>
-        <filter val="Red Belt vs JWP Belt"/>
-        <filter val="Red Belt vs White Belt Double Title"/>
-        <filter val="Red Belt, Mayu Injured"/>
-        <filter val="Red Belt, No DQ"/>
+        <filter val="High Speed Belt"/>
+        <filter val="High Speed Belt / Riho's Debut Match"/>
+        <filter val="High Speed Grand Prix"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Stardom Match Guide.xlsx
+++ b/Stardom Match Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2G3918897\Documents\Projects\Stardom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321DDDC6-19B7-43ED-A733-ED145C58A5D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5F0809-787F-48B1-B300-2332CEC30BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{0008F500-85B8-454E-8683-1FB592B84773}"/>
   </bookViews>
@@ -15041,8 +15041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DE85C4-A2A9-433F-9184-27961FEC0043}">
   <dimension ref="A1:G2129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A218" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15050,6 +15050,7 @@
     <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.453125" customWidth="1"/>
     <col min="5" max="5" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">

--- a/Stardom Match Guide.xlsx
+++ b/Stardom Match Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2G3918897\Documents\Projects\Stardom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3936A882-A7B6-44B7-9A0C-68A84E7D9714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5827F8C7-9F81-4280-B616-F7835B71CED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{0008F500-85B8-454E-8683-1FB592B84773}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$2129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$697:$G$1149</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -14473,9 +14473,6 @@
     <t>Natsupoi</t>
   </si>
   <si>
-    <t>Bea Priestly</t>
-  </si>
-  <si>
     <t>Kagetsu</t>
   </si>
   <si>
@@ -14498,6 +14495,9 @@
   </si>
   <si>
     <t>Maika</t>
+  </si>
+  <si>
+    <t>Bea Priestley</t>
   </si>
 </sst>
 </file>
@@ -15106,8 +15106,8 @@
   <dimension ref="A1:G2129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2104" sqref="F2104"/>
+      <pane ySplit="1" topLeftCell="A697" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26252,7 +26252,7 @@
         <v>2762</v>
       </c>
       <c r="G601" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="602" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -26338,7 +26338,7 @@
         <v>3289</v>
       </c>
       <c r="G605" t="s">
-        <v>4814</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="606" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -26361,7 +26361,7 @@
         <v>3289</v>
       </c>
       <c r="G606" t="s">
-        <v>4812</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="607" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -26494,7 +26494,7 @@
         <v>3310</v>
       </c>
       <c r="G613" t="s">
-        <v>4812</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="614" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -26535,7 +26535,7 @@
         <v>148</v>
       </c>
       <c r="G615" t="s">
-        <v>4814</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="616" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -26724,7 +26724,7 @@
         <v>3343</v>
       </c>
       <c r="G625" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="626" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -26939,7 +26939,7 @@
         <v>3368</v>
       </c>
       <c r="G636" t="s">
-        <v>4814</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="637" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -27016,7 +27016,7 @@
         <v>4</v>
       </c>
       <c r="G640" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="641" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -27340,7 +27340,7 @@
         <v>3416</v>
       </c>
       <c r="G657" t="s">
-        <v>4812</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="658" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -27363,7 +27363,7 @@
         <v>3416</v>
       </c>
       <c r="G658" t="s">
-        <v>4814</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="659" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -27422,7 +27422,7 @@
         <v>3434</v>
       </c>
       <c r="G661" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="662" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -27445,7 +27445,7 @@
         <v>3434</v>
       </c>
       <c r="G662" t="s">
-        <v>4814</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="663" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -28116,7 +28116,7 @@
         <v>3507</v>
       </c>
       <c r="G697" t="s">
-        <v>4811</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="698" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -28177,7 +28177,7 @@
         <v>3518</v>
       </c>
       <c r="G700" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="701" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -28354,7 +28354,7 @@
         <v>3538</v>
       </c>
       <c r="G709" t="s">
-        <v>4811</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="710" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -28377,7 +28377,7 @@
         <v>3538</v>
       </c>
       <c r="G710" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="711" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -28472,7 +28472,7 @@
         <v>2762</v>
       </c>
       <c r="G715" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="716" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -28797,7 +28797,7 @@
         <v>2930</v>
       </c>
       <c r="G732" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="733" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -28820,7 +28820,7 @@
         <v>2930</v>
       </c>
       <c r="G733" t="s">
-        <v>4811</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="734" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -28901,7 +28901,7 @@
         <v>3606</v>
       </c>
       <c r="G737" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="738" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29367,7 +29367,7 @@
         <v>3668</v>
       </c>
       <c r="G762" t="s">
-        <v>4817</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="763" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29468,7 +29468,7 @@
         <v>3677</v>
       </c>
       <c r="G767" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="768" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29491,7 +29491,7 @@
         <v>3677</v>
       </c>
       <c r="G768" t="s">
-        <v>4811</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="769" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29701,7 +29701,7 @@
         <v>3707</v>
       </c>
       <c r="G779" t="s">
-        <v>4816</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="780" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29744,7 +29744,7 @@
         <v>3707</v>
       </c>
       <c r="G781" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="782" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -29767,7 +29767,7 @@
         <v>3707</v>
       </c>
       <c r="G782" t="s">
-        <v>4811</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="783" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31364,7 +31364,7 @@
         <v>2649</v>
       </c>
       <c r="G863" t="s">
-        <v>4816</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="864" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31387,7 +31387,7 @@
         <v>2649</v>
       </c>
       <c r="G864" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="865" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31488,7 +31488,7 @@
         <v>3883</v>
       </c>
       <c r="G869" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="870" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31511,7 +31511,7 @@
         <v>3883</v>
       </c>
       <c r="G870" t="s">
-        <v>4811</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="871" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -31882,7 +31882,7 @@
         <v>3931</v>
       </c>
       <c r="G889" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="890" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -33102,7 +33102,7 @@
         <v>4077</v>
       </c>
       <c r="G953" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="954" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -33853,7 +33853,7 @@
         <v>4163</v>
       </c>
       <c r="G993" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="994" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -33971,7 +33971,7 @@
         <v>4177</v>
       </c>
       <c r="G999" t="s">
-        <v>4815</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="1000" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -34072,7 +34072,7 @@
         <v>4190</v>
       </c>
       <c r="G1004" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="1005" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -35056,7 +35056,7 @@
         <v>4307</v>
       </c>
       <c r="G1056" t="s">
-        <v>4819</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="1057" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -36879,7 +36879,7 @@
         <v>4479</v>
       </c>
       <c r="G1149" t="s">
-        <v>4811</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="1150" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -37559,7 +37559,7 @@
         <v>4534</v>
       </c>
       <c r="G1184" t="s">
-        <v>4819</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="1185" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -38049,7 +38049,7 @@
         <v>4610</v>
       </c>
       <c r="G1209" t="s">
-        <v>4819</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="1210" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -55277,7 +55277,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G2129" xr:uid="{C8DE85C4-A2A9-433F-9184-27961FEC0043}"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{A01E069F-5171-4EA6-877F-866E02C0DB2B}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{1CDD5999-C56B-4167-BFDF-E1358F0576BA}"/>

--- a/Stardom Match Guide.xlsx
+++ b/Stardom Match Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2G3918897\Documents\Projects\Stardom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5827F8C7-9F81-4280-B616-F7835B71CED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F4A6F0-5DED-4FA0-87CF-E170D4570F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{0008F500-85B8-454E-8683-1FB592B84773}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$697:$G$1149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$2129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11496" uniqueCount="4820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11497" uniqueCount="4820">
   <si>
     <t>2021.01.02</t>
   </si>
@@ -15106,7 +15106,7 @@
   <dimension ref="A1:G2129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A697" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -26093,6 +26093,9 @@
       <c r="F593" s="8" t="s">
         <v>4</v>
       </c>
+      <c r="G593" t="s">
+        <v>4797</v>
+      </c>
     </row>
     <row r="594" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A594" s="6" t="s">
@@ -55277,6 +55280,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G2129" xr:uid="{C8DE85C4-A2A9-433F-9184-27961FEC0043}"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{A01E069F-5171-4EA6-877F-866E02C0DB2B}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{1CDD5999-C56B-4167-BFDF-E1358F0576BA}"/>

--- a/Stardom Match Guide.xlsx
+++ b/Stardom Match Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2G3918897\Documents\Projects\Stardom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B662F8-3015-42A1-B3FF-6C95A84631D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2992D74D-E931-4B40-9E8C-8FD933664A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{0008F500-85B8-454E-8683-1FB592B84773}"/>
   </bookViews>
@@ -15385,8 +15385,8 @@
   <dimension ref="A1:G2181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Stardom Match Guide.xlsx
+++ b/Stardom Match Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2G3918897\Documents\Projects\Stardom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308D86EA-2508-4D1C-86BB-97AC2FB8B66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C18A7D9-9C2F-4A5F-B579-9089F7497041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{0008F500-85B8-454E-8683-1FB592B84773}"/>
   </bookViews>
@@ -14695,6 +14695,9 @@
     <t>Act Yasukawa vs Mayu Iwatani</t>
   </si>
   <si>
+    <t>Natsuki Taiyo</t>
+  </si>
+  <si>
     <t>Yuzuki Aikawa</t>
   </si>
   <si>
@@ -14852,9 +14855,6 @@
   </si>
   <si>
     <t>Natsuki Taiyo vs Kaori Yoneyama</t>
-  </si>
-  <si>
-    <t>Natsuko Taiyo</t>
   </si>
   <si>
     <t>2013.12.23</t>
@@ -15762,7 +15762,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16502,7 +16502,7 @@
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5" t="s">
-        <v>4902</v>
+        <v>4903</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>1995</v>
@@ -16512,7 +16512,7 @@
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="5" t="s">
-        <v>4885</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -16529,7 +16529,7 @@
       </c>
       <c r="F43" s="5"/>
       <c r="G43" s="8" t="s">
-        <v>4938</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -16568,11 +16568,11 @@
     </row>
     <row r="46" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>4900</v>
+        <v>4901</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5" t="s">
-        <v>4901</v>
+        <v>4902</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>1995</v>
@@ -16582,7 +16582,7 @@
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="5" t="s">
-        <v>4885</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -16658,7 +16658,7 @@
         <v>1858</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>4885</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -16871,11 +16871,11 @@
     </row>
     <row r="63" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>4905</v>
+        <v>4906</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>4909</v>
+        <v>4910</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>1995</v>
@@ -16885,7 +16885,7 @@
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="5" t="s">
-        <v>4885</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -16913,7 +16913,7 @@
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>4932</v>
+        <v>4933</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="5" t="s">
@@ -16921,7 +16921,7 @@
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="8" t="s">
-        <v>4938</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -16968,7 +16968,7 @@
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
-        <v>4908</v>
+        <v>4909</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>1995</v>
@@ -16978,7 +16978,7 @@
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="5" t="s">
-        <v>4885</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -17016,7 +17016,7 @@
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="5" t="s">
-        <v>4885</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -17137,7 +17137,7 @@
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="8" t="s">
-        <v>4938</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -17165,7 +17165,7 @@
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>4907</v>
+        <v>4908</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>1995</v>
@@ -17175,7 +17175,7 @@
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="5" t="s">
-        <v>4885</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -17250,11 +17250,11 @@
     </row>
     <row r="84" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>4904</v>
+        <v>4905</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="5" t="s">
-        <v>4906</v>
+        <v>4907</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>1995</v>
@@ -17264,7 +17264,7 @@
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="5" t="s">
-        <v>4885</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -17273,7 +17273,7 @@
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5" t="s">
-        <v>4937</v>
+        <v>4938</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="5" t="s">
@@ -17281,7 +17281,7 @@
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="8" t="s">
-        <v>4938</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -17345,7 +17345,7 @@
     </row>
     <row r="89" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>4903</v>
+        <v>4904</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
@@ -17359,7 +17359,7 @@
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="5" t="s">
-        <v>4885</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -17368,7 +17368,7 @@
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="5" t="s">
-        <v>4899</v>
+        <v>4900</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>1995</v>
@@ -17414,16 +17414,16 @@
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="8" t="s">
-        <v>4938</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>4895</v>
+        <v>4896</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="5" t="s">
-        <v>4898</v>
+        <v>4899</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>1995</v>
@@ -17442,7 +17442,7 @@
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="5" t="s">
-        <v>4897</v>
+        <v>4898</v>
       </c>
       <c r="D94" s="6" t="s">
         <v>1995</v>
@@ -17480,7 +17480,7 @@
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="5" t="s">
-        <v>4935</v>
+        <v>4936</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="5" t="s">
@@ -17514,7 +17514,7 @@
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="5" t="s">
-        <v>4896</v>
+        <v>4897</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>1995</v>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="B103" s="5"/>
       <c r="C103" s="5" t="s">
-        <v>4894</v>
+        <v>4895</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>1995</v>
@@ -17658,7 +17658,7 @@
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="5" t="s">
-        <v>4893</v>
+        <v>4894</v>
       </c>
       <c r="D106" s="6" t="s">
         <v>1995</v>
@@ -17723,7 +17723,7 @@
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="5" t="s">
-        <v>4935</v>
+        <v>4936</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="5" t="s">
@@ -17740,7 +17740,7 @@
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="5" t="s">
-        <v>4892</v>
+        <v>4893</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>1995</v>
@@ -17774,11 +17774,11 @@
     </row>
     <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>4934</v>
+        <v>4935</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="5" t="s">
-        <v>4937</v>
+        <v>4938</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="5" t="s">
@@ -17786,16 +17786,16 @@
       </c>
       <c r="F112" s="7"/>
       <c r="G112" s="8" t="s">
-        <v>4938</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>4889</v>
+        <v>4890</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="5" t="s">
-        <v>4891</v>
+        <v>4892</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>1995</v>
@@ -17814,7 +17814,7 @@
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="5" t="s">
-        <v>4890</v>
+        <v>4891</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>1995</v>
@@ -17848,11 +17848,11 @@
     </row>
     <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>4933</v>
+        <v>4934</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="5" t="s">
-        <v>4936</v>
+        <v>4937</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="5" t="s">
@@ -17860,7 +17860,7 @@
       </c>
       <c r="F116" s="7"/>
       <c r="G116" s="8" t="s">
-        <v>4938</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -17888,7 +17888,7 @@
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="5" t="s">
-        <v>4937</v>
+        <v>4938</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="5" t="s">
@@ -17896,16 +17896,16 @@
       </c>
       <c r="F118" s="7"/>
       <c r="G118" s="8" t="s">
-        <v>4938</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>4931</v>
+        <v>4932</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="5" t="s">
-        <v>4932</v>
+        <v>4933</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="5" t="s">
@@ -17975,11 +17975,11 @@
     </row>
     <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>4887</v>
+        <v>4888</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="5" t="s">
-        <v>4886</v>
+        <v>4887</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>1995</v>
@@ -18015,11 +18015,11 @@
     </row>
     <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>4888</v>
+        <v>4889</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="5" t="s">
-        <v>4886</v>
+        <v>4887</v>
       </c>
       <c r="D125" s="6" t="s">
         <v>1995</v>
@@ -18230,7 +18230,7 @@
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5" t="s">
-        <v>4930</v>
+        <v>4931</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="5" t="s">
@@ -18386,7 +18386,7 @@
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="5" t="s">
-        <v>4928</v>
+        <v>4929</v>
       </c>
       <c r="D144" s="6"/>
       <c r="E144" s="5" t="s">
@@ -18394,7 +18394,7 @@
       </c>
       <c r="F144" s="7"/>
       <c r="G144" s="8" t="s">
-        <v>4929</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="145" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -18544,7 +18544,7 @@
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="5" t="s">
-        <v>4927</v>
+        <v>4928</v>
       </c>
       <c r="D152" s="6"/>
       <c r="E152" s="5" t="s">
@@ -18552,7 +18552,7 @@
       </c>
       <c r="F152" s="7"/>
       <c r="G152" s="8" t="s">
-        <v>4929</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="153" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -18783,7 +18783,7 @@
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="5" t="s">
-        <v>4925</v>
+        <v>4926</v>
       </c>
       <c r="D165" s="6"/>
       <c r="E165" s="5" t="s">
@@ -18791,7 +18791,7 @@
       </c>
       <c r="F165" s="7"/>
       <c r="G165" s="8" t="s">
-        <v>4926</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="166" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -19064,7 +19064,7 @@
       </c>
       <c r="B180" s="4"/>
       <c r="C180" s="5" t="s">
-        <v>4924</v>
+        <v>4925</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>1995</v>
@@ -19232,7 +19232,7 @@
     </row>
     <row r="188" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
-        <v>4922</v>
+        <v>4923</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="5" t="s">
@@ -19434,7 +19434,7 @@
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="5" t="s">
-        <v>4923</v>
+        <v>4924</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>1995</v>
@@ -20575,11 +20575,11 @@
     </row>
     <row r="257" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
-        <v>4920</v>
+        <v>4921</v>
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="5" t="s">
-        <v>4921</v>
+        <v>4922</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>1995</v>
@@ -21437,7 +21437,7 @@
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="5" t="s">
-        <v>4918</v>
+        <v>4919</v>
       </c>
       <c r="D303" s="5"/>
       <c r="E303" s="5" t="s">
@@ -21595,7 +21595,7 @@
       </c>
       <c r="B311" s="4"/>
       <c r="C311" s="5" t="s">
-        <v>4917</v>
+        <v>4918</v>
       </c>
       <c r="D311" s="6"/>
       <c r="E311" s="5" t="s">
@@ -21745,11 +21745,11 @@
     </row>
     <row r="319" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
-        <v>4915</v>
+        <v>4916</v>
       </c>
       <c r="B319" s="4"/>
       <c r="C319" s="5" t="s">
-        <v>4919</v>
+        <v>4920</v>
       </c>
       <c r="D319" s="6"/>
       <c r="E319" s="5" t="s">
@@ -22122,11 +22122,11 @@
     </row>
     <row r="338" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
-        <v>4914</v>
+        <v>4915</v>
       </c>
       <c r="B338" s="4"/>
       <c r="C338" s="5" t="s">
-        <v>4916</v>
+        <v>4917</v>
       </c>
       <c r="D338" s="6"/>
       <c r="E338" s="5" t="s">
@@ -22323,7 +22323,7 @@
         <v>2475</v>
       </c>
       <c r="G347" s="8" t="s">
-        <v>4913</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="348" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -22542,7 +22542,7 @@
       </c>
       <c r="B358" s="5"/>
       <c r="C358" s="5" t="s">
-        <v>4912</v>
+        <v>4913</v>
       </c>
       <c r="D358" s="6"/>
       <c r="E358" s="5" t="s">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="F358" s="7"/>
       <c r="G358" s="8" t="s">
-        <v>4910</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="359" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -23424,7 +23424,7 @@
       </c>
       <c r="B400" s="5"/>
       <c r="C400" s="5" t="s">
-        <v>4911</v>
+        <v>4912</v>
       </c>
       <c r="D400" s="6"/>
       <c r="E400" s="5" t="s">
@@ -23432,7 +23432,7 @@
       </c>
       <c r="F400" s="7"/>
       <c r="G400" s="8" t="s">
-        <v>4910</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="401" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -24057,7 +24057,7 @@
         <v>2679</v>
       </c>
       <c r="G433" s="5" t="s">
-        <v>4910</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="434" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -24404,7 +24404,7 @@
         <v>2720</v>
       </c>
       <c r="G450" s="5" t="s">
-        <v>4910</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="451" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -28632,7 +28632,7 @@
         <v>4</v>
       </c>
       <c r="G656" s="5" t="s">
-        <v>4910</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="657" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">

--- a/Stardom Match Guide.xlsx
+++ b/Stardom Match Guide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2G3918897\Documents\Projects\Stardom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A25CEB-0376-4C5D-9DA5-977B61454F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDADFD7F-E7E6-4692-89FF-43A9BB8B6EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{0008F500-85B8-454E-8683-1FB592B84773}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$2229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$2319</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12060" uniqueCount="4966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12437" uniqueCount="5099">
   <si>
     <t>2021.01.02</t>
   </si>
@@ -14936,6 +14936,405 @@
   </si>
   <si>
     <t>2016.05.22</t>
+  </si>
+  <si>
+    <t>2022.05.21</t>
+  </si>
+  <si>
+    <t>AZM vs Hina vs Rina</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3752</t>
+  </si>
+  <si>
+    <t>Nagano</t>
+  </si>
+  <si>
+    <t>Thekla/Mai Sakurai vs Saya Iida/Hanan</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3753</t>
+  </si>
+  <si>
+    <t>Mayu/Hazuki/Koguma/Kohgo vs Tam/Mina/Unagi/Waka</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3755</t>
+  </si>
+  <si>
+    <t>Giulia/Maika/Himeka/Natsupoi vs Momo/Kid/Saki/Ruaka</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3756</t>
+  </si>
+  <si>
+    <t>Syuri/MIRAI/Ami Sourei vs Utami Hayashishita/Saya Kamitani/Lady C</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3757</t>
+  </si>
+  <si>
+    <t>2022.05.22</t>
+  </si>
+  <si>
+    <t>Momo Watanabe/Saki Kashima vs Saya Iida/Hanan</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3759</t>
+  </si>
+  <si>
+    <t>Utami Hayashishita/Lady C/Hina vs Starlight Kid/Ruaka/Rina</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3760</t>
+  </si>
+  <si>
+    <t>Syuri/MIRAI/Ami Sourei vs Tam Nakano/Mina Shirakawa/Unagi Sayaka</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3762</t>
+  </si>
+  <si>
+    <t>Saya Kamitani/AZM vs Thekla/Natsupoi</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3763</t>
+  </si>
+  <si>
+    <t>Mayu/Koguma/Hazuki/Kohgo vs Giulia/Maika/Himeka/Sakurai</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3764</t>
+  </si>
+  <si>
+    <t>2022.05.28</t>
+  </si>
+  <si>
+    <t>Ami/Hina/Rina vs Iida/Kohgo/Lady C</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3766</t>
+  </si>
+  <si>
+    <t>Random Draw Tag</t>
+  </si>
+  <si>
+    <t>Ota Ward Gym - Flashing Champions 2022</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3767</t>
+  </si>
+  <si>
+    <t>Mina/Unagi/Waka vs Suzu Suzuki/Akane Fujita/Mochi Miyagi</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3768</t>
+  </si>
+  <si>
+    <t>AZM vs Thekla</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3769</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3770</t>
+  </si>
+  <si>
+    <t>KAIRI/Tam Nakano vs Utami Hayashishita/Miyu Amasaki</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3771</t>
+  </si>
+  <si>
+    <t>Hazuki/Koguma vs Giulia/Sakurai</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3772</t>
+  </si>
+  <si>
+    <t>Maika/Himeka/Natsupoi vs Momo/Kid/Saki</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3773</t>
+  </si>
+  <si>
+    <t>Saya Kamitani vs MIRAI</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3774</t>
+  </si>
+  <si>
+    <t>Syuri vs Risa Sera</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3775</t>
+  </si>
+  <si>
+    <t>2022.06.04</t>
+  </si>
+  <si>
+    <t>Ami Sourei vs Miyu Amasaki</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3785</t>
+  </si>
+  <si>
+    <t>5 Star GP Qualifying League</t>
+  </si>
+  <si>
+    <t>Mito, Ibaraki</t>
+  </si>
+  <si>
+    <t>Waka Tsukiyama vs Rina</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3786</t>
+  </si>
+  <si>
+    <t>Ruaka vs Hina</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3787</t>
+  </si>
+  <si>
+    <t>AZM vs Koguma vs Unagi Sayaka</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3789</t>
+  </si>
+  <si>
+    <t>Hazuki/Momo Kohgo vs Giulia/Sakurai</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3790</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3791</t>
+  </si>
+  <si>
+    <t>Syuri/MIRAI vs Tam Nakano/Mina Shirakawa</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3792</t>
+  </si>
+  <si>
+    <t>Mayu Iwatani/Iida/Hanan vs Momo/Kid/Saki</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3793</t>
+  </si>
+  <si>
+    <t>2022.06.05</t>
+  </si>
+  <si>
+    <t>Momo Kohgo vs Miyu Amasaki</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3794</t>
+  </si>
+  <si>
+    <t>Ami Sourei vs Rina</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3795</t>
+  </si>
+  <si>
+    <t>Mai Sakurai vs Hina</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3797</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3798</t>
+  </si>
+  <si>
+    <t>Starlight Kid vs Waka Tsukiyama vs Fukigen DEATH</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3799</t>
+  </si>
+  <si>
+    <t>Giulia/Maika vs Momo Watanabe/Saki Kashima</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3800</t>
+  </si>
+  <si>
+    <t>Syuri/MIRAI vs Himeka/Natsupoi</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3801</t>
+  </si>
+  <si>
+    <t>Utami/Kamitani/AZM/Lady C vs Mayu/Hazuki/Koguma/Hanan</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3802</t>
+  </si>
+  <si>
+    <t>Tam/Mina/Unagi vs SAKI/Hikari Shimizu/Yuko Sakurai</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3803</t>
+  </si>
+  <si>
+    <t>Losers Must Join Other Unit</t>
+  </si>
+  <si>
+    <t>2022.06.11</t>
+  </si>
+  <si>
+    <t>Momo Kohgo vs Waka Tsukiyama</t>
+  </si>
+  <si>
+    <t>Giulia/Sakurai vs Momo/Ruaka</t>
+  </si>
+  <si>
+    <t>MIRAI/Ami vs Utami/Kamitani</t>
+  </si>
+  <si>
+    <t>Maika/Himeka/Natsupoi vs Tam Nakano/Mina Shirakawa/Unagi Sayaka</t>
+  </si>
+  <si>
+    <t>Syuri vs Mayu Iwatani vs Starlight Kid</t>
+  </si>
+  <si>
+    <t>Hazuki/Koguma vs Saki Kashima/Fukigen DEATH</t>
+  </si>
+  <si>
+    <t>2022.06.12</t>
+  </si>
+  <si>
+    <t>Ami Sourei vs Waka Tsukiyama</t>
+  </si>
+  <si>
+    <t>Momo Kohgo vs Ruaka</t>
+  </si>
+  <si>
+    <t>Momo Watanabe vs Natsupoi vs Mina Shirakawa</t>
+  </si>
+  <si>
+    <t>Mayu/Koguma/Hazuki vs Giulia/Maika/Himeka</t>
+  </si>
+  <si>
+    <t>Syuri/MIRAI vs Tam Nakano/Unagi Sayaka</t>
+  </si>
+  <si>
+    <t>Utami/Kamitani/Lady C vs Kid/Saki/DEATH</t>
+  </si>
+  <si>
+    <t>2022.06.16</t>
+  </si>
+  <si>
+    <t>Mai Sakurai vs Lady C</t>
+  </si>
+  <si>
+    <t>Tam Nakano vs Natsupoi vs Saya Iida</t>
+  </si>
+  <si>
+    <t>Utami Hayashishita/Saya Kamitani vs Mina Shirakawa/Unagi Sayaka</t>
+  </si>
+  <si>
+    <t>Syuri/MIRAI/Ami vs Giulia/Maika/Himeka</t>
+  </si>
+  <si>
+    <t>Mayu/Koguma/Hazuki/Kohgo vs Momo/Kid/Saki/Ruaka</t>
+  </si>
+  <si>
+    <t>2022.06.18</t>
+  </si>
+  <si>
+    <t>Miyu Amasaki vs Rina</t>
+  </si>
+  <si>
+    <t>Natsupoi/Thekla vs Saya Iida/Momo Kohgo</t>
+  </si>
+  <si>
+    <t>Mayu/Koguma/Hazuki/Hanan vs Momo/Kid/Saki/Ruaka</t>
+  </si>
+  <si>
+    <t>Syuri/MIRAI/Ami vs Utami/Kamitani/AZM</t>
+  </si>
+  <si>
+    <t>2022.06.19</t>
+  </si>
+  <si>
+    <t>Ami Sourei vs Momo Kohgo</t>
+  </si>
+  <si>
+    <t>Maika vs Starlight Kid vs Lady C</t>
+  </si>
+  <si>
+    <t>Syuri/MIRAI vs Momo Watanabe/Ruaka</t>
+  </si>
+  <si>
+    <t>Mayu/Hazuki/Koguma/Iida vs Utami/Kamitani/AZM/Miyu</t>
+  </si>
+  <si>
+    <t>2022.06.25</t>
+  </si>
+  <si>
+    <t>Miyu Amasaki vs Waka Tsukiyama</t>
+  </si>
+  <si>
+    <t>AZM vs Koguma vs Saki Kashima</t>
+  </si>
+  <si>
+    <t>Utami Hayashishita/Saya Kamitani vs Hazuki/Saya Iida</t>
+  </si>
+  <si>
+    <t>Giulia/Thekla/Sakurai vs Tam/Mina/Unagi</t>
+  </si>
+  <si>
+    <t>Mayu Iwatani/Momo Kohgo vs Momo Watanabe/Starlight Kid</t>
+  </si>
+  <si>
+    <t>Syuri/MIRAI/Ami vs Maika/Himeka/Natsupoi</t>
+  </si>
+  <si>
+    <t>2022.06.26</t>
+  </si>
+  <si>
+    <t>Unagi Sayaka vs Ruaka vs Waka Tsukiyama</t>
+  </si>
+  <si>
+    <t>Nagoya Congress Center - FIGHT IN THE TOP 2022</t>
+  </si>
+  <si>
+    <t>Saya Iida/Momo Kohgo vs Miyu Amasaki/Lady C</t>
+  </si>
+  <si>
+    <t>Momo/Kid/Saki vs Syuri/MIRAI/Ami vs Giulia/Maika/Sakurai</t>
+  </si>
+  <si>
+    <t>Cage Match</t>
+  </si>
+  <si>
+    <t>Mayu/Hazuki/Koguma vs Utami/Kamitani/AZM</t>
+  </si>
+  <si>
+    <t>2022.06.28</t>
+  </si>
+  <si>
+    <t>Momo Kohgo vs Rina</t>
+  </si>
+  <si>
+    <t>Korakuen Hall - 5 Star GP Qualifying League Finals</t>
+  </si>
+  <si>
+    <t>Saya Iida vs Hina</t>
+  </si>
+  <si>
+    <t>Mai Sakurai vs Ruaka</t>
+  </si>
+  <si>
+    <t>Hanan vs Tomoka Inaba</t>
+  </si>
+  <si>
+    <t>Syuri/MIRAI/Ami vs Momo/Saki/DEATH vs Giulia/Maika/Himeka vs Mayu/Hazuki/Koguma</t>
+  </si>
+  <si>
+    <t>Utami/Saya/AZM/Lady C vs Mina/Unagi/SAKI/Shimizu</t>
   </si>
 </sst>
 </file>
@@ -15023,7 +15422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -15081,12 +15480,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -15118,26 +15530,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -15453,6 +15857,13 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thick">
+          <color rgb="FF000000"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -15478,11 +15889,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thick">
-          <color rgb="FF000000"/>
-        </left>
-      </border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -15498,18 +15916,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BA1BB43-67DD-44E4-BE51-B4E2C21CAFE8}" name="Table1" displayName="Table1" ref="A1:G2229" totalsRowShown="0" headerRowDxfId="0" dataDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BA1BB43-67DD-44E4-BE51-B4E2C21CAFE8}" name="Table1" displayName="Table1" ref="A1:G2319" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A217:G2204">
     <sortCondition ref="A1:A2229"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{EE4BB4B9-1641-4171-80BA-E51171C6D6F5}" name="Date" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{72462B94-D823-49F7-B4BB-B4D9CB351F02}" name="Rating" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{63C6708F-C85B-48FA-8358-B547857B6642}" name="Match" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{2CA1FE1E-798D-4E12-8B2F-035D225FE839}" name="Link" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{2B914396-1E18-4789-BA3D-5CACCC6EF1CA}" name="Notes" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{ADA0F25D-8F87-4207-9A1A-642FF013D51B}" name="Event" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{51590F95-DEAA-429E-8D4D-2DE84B8C19E9}" name="Winner" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{EE4BB4B9-1641-4171-80BA-E51171C6D6F5}" name="Date" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{72462B94-D823-49F7-B4BB-B4D9CB351F02}" name="Rating" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{63C6708F-C85B-48FA-8358-B547857B6642}" name="Match" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{2CA1FE1E-798D-4E12-8B2F-035D225FE839}" name="Link" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{2B914396-1E18-4789-BA3D-5CACCC6EF1CA}" name="Notes" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{ADA0F25D-8F87-4207-9A1A-642FF013D51B}" name="Event" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{51590F95-DEAA-429E-8D4D-2DE84B8C19E9}" name="Winner" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15812,11 +16230,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DE85C4-A2A9-433F-9184-27961FEC0043}">
-  <dimension ref="A1:G2229"/>
+  <dimension ref="A1:G2319"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A2301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2316" sqref="G2316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -60009,6 +60427,1570 @@
         <v>700</v>
       </c>
       <c r="G2229" s="8"/>
+    </row>
+    <row r="2230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2230" s="3" t="s">
+        <v>4966</v>
+      </c>
+      <c r="B2230" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2230" s="5" t="s">
+        <v>4967</v>
+      </c>
+      <c r="D2230" s="16" t="s">
+        <v>4968</v>
+      </c>
+      <c r="E2230" s="5"/>
+      <c r="F2230" s="7" t="s">
+        <v>4969</v>
+      </c>
+      <c r="G2230" s="8"/>
+    </row>
+    <row r="2231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2231" s="3" t="s">
+        <v>4966</v>
+      </c>
+      <c r="B2231" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2231" s="5" t="s">
+        <v>4970</v>
+      </c>
+      <c r="D2231" s="5" t="s">
+        <v>4971</v>
+      </c>
+      <c r="E2231" s="5"/>
+      <c r="F2231" s="7" t="s">
+        <v>4969</v>
+      </c>
+      <c r="G2231" s="8"/>
+    </row>
+    <row r="2232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2232" s="3" t="s">
+        <v>4966</v>
+      </c>
+      <c r="B2232" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2232" s="5" t="s">
+        <v>4972</v>
+      </c>
+      <c r="D2232" s="16" t="s">
+        <v>4973</v>
+      </c>
+      <c r="E2232" s="5"/>
+      <c r="F2232" s="7" t="s">
+        <v>4969</v>
+      </c>
+      <c r="G2232" s="8"/>
+    </row>
+    <row r="2233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2233" s="3" t="s">
+        <v>4966</v>
+      </c>
+      <c r="B2233" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2233" s="5" t="s">
+        <v>4974</v>
+      </c>
+      <c r="D2233" s="5" t="s">
+        <v>4975</v>
+      </c>
+      <c r="E2233" s="5"/>
+      <c r="F2233" s="7" t="s">
+        <v>4969</v>
+      </c>
+      <c r="G2233" s="8"/>
+    </row>
+    <row r="2234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2234" s="3" t="s">
+        <v>4966</v>
+      </c>
+      <c r="B2234" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2234" s="5" t="s">
+        <v>4976</v>
+      </c>
+      <c r="D2234" s="5" t="s">
+        <v>4977</v>
+      </c>
+      <c r="E2234" s="5"/>
+      <c r="F2234" s="7" t="s">
+        <v>4969</v>
+      </c>
+      <c r="G2234" s="8"/>
+    </row>
+    <row r="2235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2235" s="3" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B2235" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2235" s="5" t="s">
+        <v>4979</v>
+      </c>
+      <c r="D2235" s="16" t="s">
+        <v>4980</v>
+      </c>
+      <c r="E2235" s="5"/>
+      <c r="F2235" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G2235" s="8"/>
+    </row>
+    <row r="2236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2236" s="3" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B2236" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2236" s="5" t="s">
+        <v>4981</v>
+      </c>
+      <c r="D2236" s="5" t="s">
+        <v>4982</v>
+      </c>
+      <c r="E2236" s="5"/>
+      <c r="F2236" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G2236" s="8"/>
+    </row>
+    <row r="2237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2237" s="3" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B2237" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2237" s="5" t="s">
+        <v>4983</v>
+      </c>
+      <c r="D2237" s="16" t="s">
+        <v>4984</v>
+      </c>
+      <c r="E2237" s="5"/>
+      <c r="F2237" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G2237" s="8"/>
+    </row>
+    <row r="2238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2238" s="3" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B2238" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2238" s="5" t="s">
+        <v>4985</v>
+      </c>
+      <c r="D2238" s="5" t="s">
+        <v>4986</v>
+      </c>
+      <c r="E2238" s="5"/>
+      <c r="F2238" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G2238" s="8"/>
+    </row>
+    <row r="2239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2239" s="3" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B2239" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2239" s="5" t="s">
+        <v>4987</v>
+      </c>
+      <c r="D2239" s="5" t="s">
+        <v>4988</v>
+      </c>
+      <c r="E2239" s="5"/>
+      <c r="F2239" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="G2239" s="8"/>
+    </row>
+    <row r="2240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2240" s="3" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B2240" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2240" s="5" t="s">
+        <v>4990</v>
+      </c>
+      <c r="D2240" s="16" t="s">
+        <v>4991</v>
+      </c>
+      <c r="E2240" s="5" t="s">
+        <v>4992</v>
+      </c>
+      <c r="F2240" s="7" t="s">
+        <v>4993</v>
+      </c>
+      <c r="G2240" s="8"/>
+    </row>
+    <row r="2241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2241" s="3" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B2241" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2241" s="5" t="s">
+        <v>2396</v>
+      </c>
+      <c r="D2241" s="16" t="s">
+        <v>4994</v>
+      </c>
+      <c r="E2241" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2241" s="7" t="s">
+        <v>4993</v>
+      </c>
+      <c r="G2241" s="8" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2242" s="3" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B2242" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2242" s="5" t="s">
+        <v>4995</v>
+      </c>
+      <c r="D2242" s="16" t="s">
+        <v>4996</v>
+      </c>
+      <c r="E2242" s="5"/>
+      <c r="F2242" s="7" t="s">
+        <v>4993</v>
+      </c>
+      <c r="G2242" s="8"/>
+    </row>
+    <row r="2243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2243" s="3" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B2243" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2243" s="5" t="s">
+        <v>4997</v>
+      </c>
+      <c r="D2243" s="16" t="s">
+        <v>4998</v>
+      </c>
+      <c r="E2243" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2243" s="7" t="s">
+        <v>4993</v>
+      </c>
+      <c r="G2243" s="8" t="s">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2244" s="3" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B2244" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2244" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D2244" s="16" t="s">
+        <v>4999</v>
+      </c>
+      <c r="E2244" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2244" s="7" t="s">
+        <v>4993</v>
+      </c>
+      <c r="G2244" s="8" t="s">
+        <v>4805</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2245" s="3" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B2245" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2245" s="5" t="s">
+        <v>5000</v>
+      </c>
+      <c r="D2245" s="16" t="s">
+        <v>5001</v>
+      </c>
+      <c r="E2245" s="5"/>
+      <c r="F2245" s="7" t="s">
+        <v>4993</v>
+      </c>
+      <c r="G2245" s="8"/>
+    </row>
+    <row r="2246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2246" s="3" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B2246" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2246" s="5" t="s">
+        <v>5002</v>
+      </c>
+      <c r="D2246" s="16" t="s">
+        <v>5003</v>
+      </c>
+      <c r="E2246" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2246" s="7" t="s">
+        <v>4993</v>
+      </c>
+      <c r="G2246" s="8"/>
+    </row>
+    <row r="2247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2247" s="3" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B2247" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2247" s="5" t="s">
+        <v>5004</v>
+      </c>
+      <c r="D2247" s="16" t="s">
+        <v>5005</v>
+      </c>
+      <c r="E2247" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2247" s="7" t="s">
+        <v>4993</v>
+      </c>
+      <c r="G2247" s="8"/>
+    </row>
+    <row r="2248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2248" s="3" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B2248" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2248" s="5" t="s">
+        <v>5006</v>
+      </c>
+      <c r="D2248" s="16" t="s">
+        <v>5007</v>
+      </c>
+      <c r="E2248" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2248" s="7" t="s">
+        <v>4993</v>
+      </c>
+      <c r="G2248" s="8" t="s">
+        <v>4798</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2249" s="3" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B2249" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2249" s="5" t="s">
+        <v>5008</v>
+      </c>
+      <c r="D2249" s="16" t="s">
+        <v>5009</v>
+      </c>
+      <c r="E2249" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2249" s="7" t="s">
+        <v>4993</v>
+      </c>
+      <c r="G2249" s="8" t="s">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2250" s="3" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B2250" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2250" s="5" t="s">
+        <v>5011</v>
+      </c>
+      <c r="D2250" s="16" t="s">
+        <v>5012</v>
+      </c>
+      <c r="E2250" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2250" s="7" t="s">
+        <v>5014</v>
+      </c>
+      <c r="G2250" s="8"/>
+    </row>
+    <row r="2251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2251" s="3" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B2251" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2251" s="5" t="s">
+        <v>5015</v>
+      </c>
+      <c r="D2251" s="5" t="s">
+        <v>5016</v>
+      </c>
+      <c r="E2251" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2251" s="7" t="s">
+        <v>5014</v>
+      </c>
+      <c r="G2251" s="8"/>
+    </row>
+    <row r="2252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2252" s="3" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B2252" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2252" s="5" t="s">
+        <v>5017</v>
+      </c>
+      <c r="D2252" s="5" t="s">
+        <v>5018</v>
+      </c>
+      <c r="E2252" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2252" s="7" t="s">
+        <v>5014</v>
+      </c>
+      <c r="G2252" s="8"/>
+    </row>
+    <row r="2253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2253" s="3" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B2253" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2253" s="5" t="s">
+        <v>5019</v>
+      </c>
+      <c r="D2253" s="16" t="s">
+        <v>5020</v>
+      </c>
+      <c r="E2253" s="5"/>
+      <c r="F2253" s="7" t="s">
+        <v>5014</v>
+      </c>
+      <c r="G2253" s="8"/>
+    </row>
+    <row r="2254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2254" s="3" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B2254" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2254" s="5" t="s">
+        <v>5021</v>
+      </c>
+      <c r="D2254" s="5" t="s">
+        <v>5022</v>
+      </c>
+      <c r="E2254" s="5"/>
+      <c r="F2254" s="7" t="s">
+        <v>5014</v>
+      </c>
+      <c r="G2254" s="8"/>
+    </row>
+    <row r="2255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2255" s="3" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B2255" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2255" s="5" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D2255" s="5" t="s">
+        <v>5023</v>
+      </c>
+      <c r="E2255" s="5"/>
+      <c r="F2255" s="7" t="s">
+        <v>5014</v>
+      </c>
+      <c r="G2255" s="8"/>
+    </row>
+    <row r="2256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2256" s="3" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B2256" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2256" s="5" t="s">
+        <v>5024</v>
+      </c>
+      <c r="D2256" s="5" t="s">
+        <v>5025</v>
+      </c>
+      <c r="E2256" s="5"/>
+      <c r="F2256" s="7" t="s">
+        <v>5014</v>
+      </c>
+      <c r="G2256" s="8"/>
+    </row>
+    <row r="2257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2257" s="3" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B2257" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2257" s="5" t="s">
+        <v>5026</v>
+      </c>
+      <c r="D2257" s="5" t="s">
+        <v>5027</v>
+      </c>
+      <c r="E2257" s="5"/>
+      <c r="F2257" s="7" t="s">
+        <v>5014</v>
+      </c>
+      <c r="G2257" s="8"/>
+    </row>
+    <row r="2258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2258" s="3" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B2258" s="5"/>
+      <c r="C2258" s="5" t="s">
+        <v>5029</v>
+      </c>
+      <c r="D2258" s="16" t="s">
+        <v>5030</v>
+      </c>
+      <c r="E2258" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2258" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="G2258" s="8"/>
+    </row>
+    <row r="2259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2259" s="3" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B2259" s="5"/>
+      <c r="C2259" s="5" t="s">
+        <v>5031</v>
+      </c>
+      <c r="D2259" s="5" t="s">
+        <v>5032</v>
+      </c>
+      <c r="E2259" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2259" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="G2259" s="8"/>
+    </row>
+    <row r="2260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2260" s="3" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B2260" s="5"/>
+      <c r="C2260" s="5" t="s">
+        <v>5033</v>
+      </c>
+      <c r="D2260" s="16" t="s">
+        <v>5034</v>
+      </c>
+      <c r="E2260" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2260" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="G2260" s="8"/>
+    </row>
+    <row r="2261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2261" s="3" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B2261" s="5"/>
+      <c r="C2261" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2261" s="5" t="s">
+        <v>5035</v>
+      </c>
+      <c r="E2261" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2261" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="G2261" s="8"/>
+    </row>
+    <row r="2262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2262" s="3" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B2262" s="5"/>
+      <c r="C2262" s="5" t="s">
+        <v>5036</v>
+      </c>
+      <c r="D2262" s="5" t="s">
+        <v>5037</v>
+      </c>
+      <c r="E2262" s="5"/>
+      <c r="F2262" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="G2262" s="8"/>
+    </row>
+    <row r="2263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2263" s="3" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B2263" s="5"/>
+      <c r="C2263" s="5" t="s">
+        <v>5038</v>
+      </c>
+      <c r="D2263" s="5" t="s">
+        <v>5039</v>
+      </c>
+      <c r="E2263" s="5"/>
+      <c r="F2263" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="G2263" s="8"/>
+    </row>
+    <row r="2264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2264" s="3" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B2264" s="5"/>
+      <c r="C2264" s="5" t="s">
+        <v>5040</v>
+      </c>
+      <c r="D2264" s="5" t="s">
+        <v>5041</v>
+      </c>
+      <c r="E2264" s="5"/>
+      <c r="F2264" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="G2264" s="8"/>
+    </row>
+    <row r="2265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2265" s="3" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B2265" s="5"/>
+      <c r="C2265" s="5" t="s">
+        <v>5042</v>
+      </c>
+      <c r="D2265" s="5" t="s">
+        <v>5043</v>
+      </c>
+      <c r="E2265" s="5"/>
+      <c r="F2265" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="G2265" s="8"/>
+    </row>
+    <row r="2266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2266" s="3" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B2266" s="5"/>
+      <c r="C2266" s="5" t="s">
+        <v>5044</v>
+      </c>
+      <c r="D2266" s="5" t="s">
+        <v>5045</v>
+      </c>
+      <c r="E2266" s="5" t="s">
+        <v>5046</v>
+      </c>
+      <c r="F2266" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="G2266" s="8"/>
+    </row>
+    <row r="2267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2267" s="3" t="s">
+        <v>5047</v>
+      </c>
+      <c r="B2267" s="5"/>
+      <c r="C2267" s="5" t="s">
+        <v>5048</v>
+      </c>
+      <c r="D2267" s="5"/>
+      <c r="E2267" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2267" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2267" s="8"/>
+    </row>
+    <row r="2268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2268" s="3" t="s">
+        <v>5047</v>
+      </c>
+      <c r="B2268" s="5"/>
+      <c r="C2268" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2268" s="5"/>
+      <c r="E2268" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2268" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2268" s="8"/>
+    </row>
+    <row r="2269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2269" s="3" t="s">
+        <v>5047</v>
+      </c>
+      <c r="B2269" s="5"/>
+      <c r="C2269" s="5" t="s">
+        <v>5049</v>
+      </c>
+      <c r="D2269" s="5"/>
+      <c r="E2269" s="5"/>
+      <c r="F2269" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2269" s="8"/>
+    </row>
+    <row r="2270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2270" s="3" t="s">
+        <v>5047</v>
+      </c>
+      <c r="B2270" s="5"/>
+      <c r="C2270" s="5" t="s">
+        <v>5050</v>
+      </c>
+      <c r="D2270" s="5"/>
+      <c r="E2270" s="5"/>
+      <c r="F2270" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2270" s="8"/>
+    </row>
+    <row r="2271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2271" s="3" t="s">
+        <v>5047</v>
+      </c>
+      <c r="B2271" s="5"/>
+      <c r="C2271" s="5" t="s">
+        <v>5051</v>
+      </c>
+      <c r="D2271" s="5"/>
+      <c r="E2271" s="5"/>
+      <c r="F2271" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2271" s="8"/>
+    </row>
+    <row r="2272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2272" s="3" t="s">
+        <v>5047</v>
+      </c>
+      <c r="B2272" s="5"/>
+      <c r="C2272" s="5" t="s">
+        <v>5052</v>
+      </c>
+      <c r="D2272" s="5"/>
+      <c r="E2272" s="5"/>
+      <c r="F2272" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2272" s="8"/>
+    </row>
+    <row r="2273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2273" s="3" t="s">
+        <v>5047</v>
+      </c>
+      <c r="B2273" s="5"/>
+      <c r="C2273" s="5" t="s">
+        <v>5053</v>
+      </c>
+      <c r="D2273" s="5"/>
+      <c r="E2273" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2273" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2273" s="8"/>
+    </row>
+    <row r="2274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2274" s="3" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B2274" s="5"/>
+      <c r="C2274" s="5" t="s">
+        <v>5055</v>
+      </c>
+      <c r="D2274" s="5"/>
+      <c r="E2274" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2274" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2274" s="8"/>
+    </row>
+    <row r="2275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2275" s="3" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B2275" s="5"/>
+      <c r="C2275" s="5" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D2275" s="5"/>
+      <c r="E2275" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2275" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2275" s="8"/>
+    </row>
+    <row r="2276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2276" s="3" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B2276" s="5"/>
+      <c r="C2276" s="5" t="s">
+        <v>5056</v>
+      </c>
+      <c r="D2276" s="5"/>
+      <c r="E2276" s="5"/>
+      <c r="F2276" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2276" s="8"/>
+    </row>
+    <row r="2277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2277" s="3" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B2277" s="5"/>
+      <c r="C2277" s="5" t="s">
+        <v>5057</v>
+      </c>
+      <c r="D2277" s="5"/>
+      <c r="E2277" s="5"/>
+      <c r="F2277" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2277" s="8"/>
+    </row>
+    <row r="2278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2278" s="3" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B2278" s="5"/>
+      <c r="C2278" s="5" t="s">
+        <v>5058</v>
+      </c>
+      <c r="D2278" s="5"/>
+      <c r="E2278" s="5"/>
+      <c r="F2278" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2278" s="8"/>
+    </row>
+    <row r="2279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2279" s="3" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B2279" s="5"/>
+      <c r="C2279" s="5" t="s">
+        <v>5059</v>
+      </c>
+      <c r="D2279" s="5"/>
+      <c r="E2279" s="5"/>
+      <c r="F2279" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2279" s="8"/>
+    </row>
+    <row r="2280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2280" s="3" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B2280" s="5"/>
+      <c r="C2280" s="5" t="s">
+        <v>5060</v>
+      </c>
+      <c r="D2280" s="5"/>
+      <c r="E2280" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2280" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2280" s="8"/>
+    </row>
+    <row r="2281" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2281" s="3" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B2281" s="5"/>
+      <c r="C2281" s="5" t="s">
+        <v>5062</v>
+      </c>
+      <c r="D2281" s="5"/>
+      <c r="E2281" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2281" s="7" t="s">
+        <v>4650</v>
+      </c>
+      <c r="G2281" s="8"/>
+    </row>
+    <row r="2282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2282" s="3" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B2282" s="5"/>
+      <c r="C2282" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D2282" s="5"/>
+      <c r="E2282" s="5"/>
+      <c r="F2282" s="7" t="s">
+        <v>4650</v>
+      </c>
+      <c r="G2282" s="8"/>
+    </row>
+    <row r="2283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2283" s="3" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B2283" s="5"/>
+      <c r="C2283" s="5" t="s">
+        <v>5063</v>
+      </c>
+      <c r="D2283" s="5"/>
+      <c r="E2283" s="5"/>
+      <c r="F2283" s="7" t="s">
+        <v>4650</v>
+      </c>
+      <c r="G2283" s="8"/>
+    </row>
+    <row r="2284" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2284" s="3" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B2284" s="5"/>
+      <c r="C2284" s="5" t="s">
+        <v>5064</v>
+      </c>
+      <c r="D2284" s="5"/>
+      <c r="E2284" s="5"/>
+      <c r="F2284" s="7" t="s">
+        <v>4650</v>
+      </c>
+      <c r="G2284" s="8"/>
+    </row>
+    <row r="2285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2285" s="3" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B2285" s="5"/>
+      <c r="C2285" s="5" t="s">
+        <v>5065</v>
+      </c>
+      <c r="D2285" s="5"/>
+      <c r="E2285" s="5"/>
+      <c r="F2285" s="7" t="s">
+        <v>4650</v>
+      </c>
+      <c r="G2285" s="8"/>
+    </row>
+    <row r="2286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2286" s="3" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B2286" s="5"/>
+      <c r="C2286" s="5" t="s">
+        <v>5066</v>
+      </c>
+      <c r="D2286" s="5"/>
+      <c r="E2286" s="5"/>
+      <c r="F2286" s="7" t="s">
+        <v>4650</v>
+      </c>
+      <c r="G2286" s="8"/>
+    </row>
+    <row r="2287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2287" s="3" t="s">
+        <v>5067</v>
+      </c>
+      <c r="B2287" s="5"/>
+      <c r="C2287" s="5" t="s">
+        <v>5068</v>
+      </c>
+      <c r="D2287" s="5"/>
+      <c r="E2287" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2287" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2287" s="8"/>
+    </row>
+    <row r="2288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2288" s="3" t="s">
+        <v>5067</v>
+      </c>
+      <c r="B2288" s="5"/>
+      <c r="C2288" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2288" s="5"/>
+      <c r="E2288" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2288" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2288" s="8"/>
+    </row>
+    <row r="2289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2289" s="3" t="s">
+        <v>5067</v>
+      </c>
+      <c r="B2289" s="5"/>
+      <c r="C2289" s="5" t="s">
+        <v>4749</v>
+      </c>
+      <c r="D2289" s="5"/>
+      <c r="E2289" s="5"/>
+      <c r="F2289" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2289" s="8"/>
+    </row>
+    <row r="2290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2290" s="3" t="s">
+        <v>5067</v>
+      </c>
+      <c r="B2290" s="5"/>
+      <c r="C2290" s="5" t="s">
+        <v>5069</v>
+      </c>
+      <c r="D2290" s="5"/>
+      <c r="E2290" s="5"/>
+      <c r="F2290" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2290" s="8"/>
+    </row>
+    <row r="2291" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2291" s="3" t="s">
+        <v>5067</v>
+      </c>
+      <c r="B2291" s="5"/>
+      <c r="C2291" s="5" t="s">
+        <v>5070</v>
+      </c>
+      <c r="D2291" s="5"/>
+      <c r="E2291" s="5"/>
+      <c r="F2291" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2291" s="8"/>
+    </row>
+    <row r="2292" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2292" s="3" t="s">
+        <v>5067</v>
+      </c>
+      <c r="B2292" s="5"/>
+      <c r="C2292" s="5" t="s">
+        <v>5071</v>
+      </c>
+      <c r="D2292" s="5"/>
+      <c r="E2292" s="5"/>
+      <c r="F2292" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2292" s="8"/>
+    </row>
+    <row r="2293" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2293" s="3" t="s">
+        <v>5072</v>
+      </c>
+      <c r="B2293" s="5"/>
+      <c r="C2293" s="5" t="s">
+        <v>5073</v>
+      </c>
+      <c r="D2293" s="5"/>
+      <c r="E2293" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2293" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2293" s="8"/>
+    </row>
+    <row r="2294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2294" s="3" t="s">
+        <v>5072</v>
+      </c>
+      <c r="B2294" s="5"/>
+      <c r="C2294" s="5" t="s">
+        <v>5074</v>
+      </c>
+      <c r="D2294" s="5"/>
+      <c r="E2294" s="5"/>
+      <c r="F2294" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2294" s="8"/>
+    </row>
+    <row r="2295" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2295" s="3" t="s">
+        <v>5072</v>
+      </c>
+      <c r="B2295" s="5"/>
+      <c r="C2295" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D2295" s="5"/>
+      <c r="E2295" s="5"/>
+      <c r="F2295" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2295" s="8"/>
+    </row>
+    <row r="2296" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2296" s="3" t="s">
+        <v>5072</v>
+      </c>
+      <c r="B2296" s="5"/>
+      <c r="C2296" s="5" t="s">
+        <v>4787</v>
+      </c>
+      <c r="D2296" s="5"/>
+      <c r="E2296" s="5"/>
+      <c r="F2296" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2296" s="8"/>
+    </row>
+    <row r="2297" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2297" s="3" t="s">
+        <v>5072</v>
+      </c>
+      <c r="B2297" s="5"/>
+      <c r="C2297" s="5" t="s">
+        <v>5075</v>
+      </c>
+      <c r="D2297" s="5"/>
+      <c r="E2297" s="5"/>
+      <c r="F2297" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2297" s="8"/>
+    </row>
+    <row r="2298" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2298" s="3" t="s">
+        <v>5072</v>
+      </c>
+      <c r="B2298" s="5"/>
+      <c r="C2298" s="5" t="s">
+        <v>5076</v>
+      </c>
+      <c r="D2298" s="5"/>
+      <c r="E2298" s="5"/>
+      <c r="F2298" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2298" s="8"/>
+    </row>
+    <row r="2299" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2299" s="3" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B2299" s="5"/>
+      <c r="C2299" s="5" t="s">
+        <v>4692</v>
+      </c>
+      <c r="D2299" s="5"/>
+      <c r="E2299" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2299" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2299" s="8"/>
+    </row>
+    <row r="2300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2300" s="3" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B2300" s="5"/>
+      <c r="C2300" s="5" t="s">
+        <v>5078</v>
+      </c>
+      <c r="D2300" s="5"/>
+      <c r="E2300" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2300" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2300" s="8"/>
+    </row>
+    <row r="2301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2301" s="3" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B2301" s="5"/>
+      <c r="C2301" s="5" t="s">
+        <v>5079</v>
+      </c>
+      <c r="D2301" s="5"/>
+      <c r="E2301" s="5"/>
+      <c r="F2301" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2301" s="8"/>
+    </row>
+    <row r="2302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2302" s="3" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B2302" s="5"/>
+      <c r="C2302" s="5" t="s">
+        <v>5080</v>
+      </c>
+      <c r="D2302" s="5"/>
+      <c r="E2302" s="5"/>
+      <c r="F2302" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2302" s="8"/>
+    </row>
+    <row r="2303" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2303" s="3" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B2303" s="5"/>
+      <c r="C2303" s="5" t="s">
+        <v>5081</v>
+      </c>
+      <c r="D2303" s="5"/>
+      <c r="E2303" s="5"/>
+      <c r="F2303" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2303" s="8"/>
+    </row>
+    <row r="2304" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2304" s="3" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B2304" s="5"/>
+      <c r="C2304" s="5" t="s">
+        <v>5082</v>
+      </c>
+      <c r="D2304" s="5"/>
+      <c r="E2304" s="5"/>
+      <c r="F2304" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2304" s="8"/>
+    </row>
+    <row r="2305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2305" s="3" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B2305" s="5"/>
+      <c r="C2305" s="5" t="s">
+        <v>5083</v>
+      </c>
+      <c r="D2305" s="5"/>
+      <c r="E2305" s="5"/>
+      <c r="F2305" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2305" s="8"/>
+    </row>
+    <row r="2306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2306" s="3" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B2306" s="5"/>
+      <c r="C2306" s="5" t="s">
+        <v>5085</v>
+      </c>
+      <c r="D2306" s="5"/>
+      <c r="E2306" s="5"/>
+      <c r="F2306" s="7" t="s">
+        <v>5086</v>
+      </c>
+      <c r="G2306" s="8"/>
+    </row>
+    <row r="2307" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2307" s="3" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B2307" s="5"/>
+      <c r="C2307" s="5" t="s">
+        <v>5087</v>
+      </c>
+      <c r="D2307" s="5"/>
+      <c r="E2307" s="5"/>
+      <c r="F2307" s="7" t="s">
+        <v>5086</v>
+      </c>
+      <c r="G2307" s="8"/>
+    </row>
+    <row r="2308" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2308" s="3" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B2308" s="5"/>
+      <c r="C2308" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="D2308" s="5"/>
+      <c r="E2308" s="5"/>
+      <c r="F2308" s="7" t="s">
+        <v>5086</v>
+      </c>
+      <c r="G2308" s="8"/>
+    </row>
+    <row r="2309" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2309" s="3" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B2309" s="5"/>
+      <c r="C2309" s="5" t="s">
+        <v>5088</v>
+      </c>
+      <c r="D2309" s="5"/>
+      <c r="E2309" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F2309" s="7" t="s">
+        <v>5086</v>
+      </c>
+      <c r="G2309" s="8"/>
+    </row>
+    <row r="2310" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2310" s="3" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B2310" s="5"/>
+      <c r="C2310" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2310" s="5"/>
+      <c r="E2310" s="5" t="s">
+        <v>5089</v>
+      </c>
+      <c r="F2310" s="7" t="s">
+        <v>5086</v>
+      </c>
+      <c r="G2310" s="8"/>
+    </row>
+    <row r="2311" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2311" s="3" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B2311" s="5"/>
+      <c r="C2311" s="5" t="s">
+        <v>5090</v>
+      </c>
+      <c r="D2311" s="5"/>
+      <c r="E2311" s="5" t="s">
+        <v>5089</v>
+      </c>
+      <c r="F2311" s="7" t="s">
+        <v>5086</v>
+      </c>
+      <c r="G2311" s="8"/>
+    </row>
+    <row r="2312" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2312" s="3" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B2312" s="5"/>
+      <c r="C2312" s="5" t="s">
+        <v>5092</v>
+      </c>
+      <c r="D2312" s="5"/>
+      <c r="E2312" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2312" s="7" t="s">
+        <v>5093</v>
+      </c>
+      <c r="G2312" s="8"/>
+    </row>
+    <row r="2313" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2313" s="3" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B2313" s="5"/>
+      <c r="C2313" s="5" t="s">
+        <v>5094</v>
+      </c>
+      <c r="D2313" s="5"/>
+      <c r="E2313" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2313" s="7" t="s">
+        <v>5093</v>
+      </c>
+      <c r="G2313" s="8"/>
+    </row>
+    <row r="2314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2314" s="3" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B2314" s="5"/>
+      <c r="C2314" s="5" t="s">
+        <v>5095</v>
+      </c>
+      <c r="D2314" s="5"/>
+      <c r="E2314" s="5" t="s">
+        <v>5013</v>
+      </c>
+      <c r="F2314" s="7" t="s">
+        <v>5093</v>
+      </c>
+      <c r="G2314" s="8"/>
+    </row>
+    <row r="2315" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2315" s="3" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B2315" s="5"/>
+      <c r="C2315" s="5" t="s">
+        <v>5096</v>
+      </c>
+      <c r="D2315" s="5"/>
+      <c r="E2315" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2315" s="7" t="s">
+        <v>5093</v>
+      </c>
+      <c r="G2315" s="8" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2316" s="3" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B2316" s="5"/>
+      <c r="C2316" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="D2316" s="5"/>
+      <c r="E2316" s="5"/>
+      <c r="F2316" s="7" t="s">
+        <v>5093</v>
+      </c>
+      <c r="G2316" s="8"/>
+    </row>
+    <row r="2317" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2317" s="3" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B2317" s="5"/>
+      <c r="C2317" s="5" t="s">
+        <v>5097</v>
+      </c>
+      <c r="D2317" s="5"/>
+      <c r="E2317" s="5" t="s">
+        <v>4771</v>
+      </c>
+      <c r="F2317" s="7" t="s">
+        <v>5093</v>
+      </c>
+      <c r="G2317" s="8"/>
+    </row>
+    <row r="2318" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2318" s="3" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B2318" s="5"/>
+      <c r="C2318" s="5" t="s">
+        <v>5098</v>
+      </c>
+      <c r="D2318" s="5"/>
+      <c r="E2318" s="5"/>
+      <c r="F2318" s="7" t="s">
+        <v>5093</v>
+      </c>
+      <c r="G2318" s="8"/>
+    </row>
+    <row r="2319" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2319" s="19" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B2319" s="20"/>
+      <c r="C2319" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="D2319" s="20"/>
+      <c r="E2319" s="20"/>
+      <c r="F2319" s="21" t="s">
+        <v>5093</v>
+      </c>
+      <c r="G2319" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -61556,11 +63538,29 @@
     <hyperlink ref="D1348" r:id="rId1542" xr:uid="{36EA47DA-99F7-470D-8157-321BE8600C9B}"/>
     <hyperlink ref="D1625" r:id="rId1543" xr:uid="{726B231A-4124-48A1-85E8-597C1822A399}"/>
     <hyperlink ref="D420" r:id="rId1544" xr:uid="{58FD6E5A-75BF-4465-85B3-C13C46D2814B}"/>
+    <hyperlink ref="D2230" r:id="rId1545" xr:uid="{0A0B4066-5B64-40BA-AABD-6B42AAC357F0}"/>
+    <hyperlink ref="D2232" r:id="rId1546" xr:uid="{BDE5FEE3-1412-45A1-98B0-3908245557D7}"/>
+    <hyperlink ref="D2235" r:id="rId1547" xr:uid="{376AF33B-F686-4C64-B848-7062261434E2}"/>
+    <hyperlink ref="D2237" r:id="rId1548" xr:uid="{66673C2B-DD00-4272-B605-99FBFB2033C8}"/>
+    <hyperlink ref="D2240" r:id="rId1549" xr:uid="{4D13B874-F5AB-4765-9397-95D0EF0B48ED}"/>
+    <hyperlink ref="D2241" r:id="rId1550" xr:uid="{0538D48C-ED68-4214-A277-3E6F5EE506E0}"/>
+    <hyperlink ref="D2242" r:id="rId1551" xr:uid="{A3DF2782-3ADE-47F0-B6CB-81E90E5E7361}"/>
+    <hyperlink ref="D2243" r:id="rId1552" xr:uid="{7658BB6F-10DD-4488-BC80-15D43DA7E40A}"/>
+    <hyperlink ref="D2244" r:id="rId1553" xr:uid="{BF7ED09B-0E39-460C-A451-036CA944108B}"/>
+    <hyperlink ref="D2245" r:id="rId1554" xr:uid="{1AE10C60-BBED-4C6E-8E7E-2E70CD9C3E79}"/>
+    <hyperlink ref="D2246" r:id="rId1555" xr:uid="{8419402D-8EA1-4939-93CC-1EBB0DA99127}"/>
+    <hyperlink ref="D2247" r:id="rId1556" xr:uid="{9A5B3289-0A30-40E0-AB51-0F7C50F07E0B}"/>
+    <hyperlink ref="D2248" r:id="rId1557" xr:uid="{C9B00AE7-6EB5-44B3-908F-EDC654762914}"/>
+    <hyperlink ref="D2249" r:id="rId1558" xr:uid="{A78D0BC3-5D17-4F6C-8755-967FC37523F3}"/>
+    <hyperlink ref="D2250" r:id="rId1559" xr:uid="{70ED2FC3-D488-43D8-BC06-2C1656F07569}"/>
+    <hyperlink ref="D2253" r:id="rId1560" xr:uid="{8F01D717-BB86-4B88-A0EB-78BB43388A28}"/>
+    <hyperlink ref="D2258" r:id="rId1561" xr:uid="{2B2C0ABF-1AE3-409B-BEDB-47D18A6DAC31}"/>
+    <hyperlink ref="D2260" r:id="rId1562" xr:uid="{3ED8B78C-218A-48E0-A156-0BA5C7283F80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1545"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1563"/>
   <tableParts count="1">
-    <tablePart r:id="rId1546"/>
+    <tablePart r:id="rId1564"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Stardom Match Guide.xlsx
+++ b/Stardom Match Guide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2G3918897\Documents\Projects\Stardom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDADFD7F-E7E6-4692-89FF-43A9BB8B6EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FAE3BA-1976-4B67-A1AE-E96F9960E11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{0008F500-85B8-454E-8683-1FB592B84773}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$2319</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$2326</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12437" uniqueCount="5099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12516" uniqueCount="5158">
   <si>
     <t>2021.01.02</t>
   </si>
@@ -15335,6 +15335,183 @@
   </si>
   <si>
     <t>Utami/Saya/AZM/Lady C vs Mina/Unagi/SAKI/Shimizu</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3804</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3805</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3807</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3808</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3809</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3810</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3811</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3812</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3813</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3814</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3815</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3816</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3817</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3818</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3820</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3821</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3822</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3823</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3824</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3825</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3826</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3828</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3829</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3830</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3831</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3832</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3833</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3834</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3835</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3836</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3838</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3839</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3840</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3841</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3842</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3843</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3844</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3845</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3846</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3857</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3858</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3859</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3860</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3861</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3862</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3850</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3851</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3852</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3853</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3854</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3855</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3856</t>
+  </si>
+  <si>
+    <t>https://www.stardom-world.com/contents/3849</t>
+  </si>
+  <si>
+    <t>2022.07.09</t>
+  </si>
+  <si>
+    <t>Hanan vs Waka Tsukiyama</t>
+  </si>
+  <si>
+    <t>AZM vs Momo Kohgo</t>
+  </si>
+  <si>
+    <t>Saya Kamitani vs Starlight Kid</t>
+  </si>
+  <si>
+    <t>Midsummer Champions</t>
+  </si>
+  <si>
+    <t>Saya Kamitani vs SAKI</t>
   </si>
 </sst>
 </file>
@@ -15916,7 +16093,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BA1BB43-67DD-44E4-BE51-B4E2C21CAFE8}" name="Table1" displayName="Table1" ref="A1:G2319" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2BA1BB43-67DD-44E4-BE51-B4E2C21CAFE8}" name="Table1" displayName="Table1" ref="A1:G2326" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A217:G2204">
     <sortCondition ref="A1:A2229"/>
   </sortState>
@@ -16230,11 +16407,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DE85C4-A2A9-433F-9184-27961FEC0043}">
-  <dimension ref="A1:G2319"/>
+  <dimension ref="A1:G2326"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2301" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2316" sqref="G2316"/>
+      <pane ySplit="1" topLeftCell="A2307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2326" sqref="C2326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -61163,7 +61340,9 @@
       <c r="C2267" s="5" t="s">
         <v>5048</v>
       </c>
-      <c r="D2267" s="5"/>
+      <c r="D2267" s="5" t="s">
+        <v>5099</v>
+      </c>
       <c r="E2267" s="5" t="s">
         <v>5013</v>
       </c>
@@ -61180,7 +61359,9 @@
       <c r="C2268" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D2268" s="5"/>
+      <c r="D2268" s="5" t="s">
+        <v>5100</v>
+      </c>
       <c r="E2268" s="5" t="s">
         <v>5013</v>
       </c>
@@ -61197,7 +61378,9 @@
       <c r="C2269" s="5" t="s">
         <v>5049</v>
       </c>
-      <c r="D2269" s="5"/>
+      <c r="D2269" s="5" t="s">
+        <v>5101</v>
+      </c>
       <c r="E2269" s="5"/>
       <c r="F2269" s="7" t="s">
         <v>84</v>
@@ -61212,7 +61395,9 @@
       <c r="C2270" s="5" t="s">
         <v>5050</v>
       </c>
-      <c r="D2270" s="5"/>
+      <c r="D2270" s="5" t="s">
+        <v>5102</v>
+      </c>
       <c r="E2270" s="5"/>
       <c r="F2270" s="7" t="s">
         <v>84</v>
@@ -61227,7 +61412,9 @@
       <c r="C2271" s="5" t="s">
         <v>5051</v>
       </c>
-      <c r="D2271" s="5"/>
+      <c r="D2271" s="5" t="s">
+        <v>5103</v>
+      </c>
       <c r="E2271" s="5"/>
       <c r="F2271" s="7" t="s">
         <v>84</v>
@@ -61242,7 +61429,9 @@
       <c r="C2272" s="5" t="s">
         <v>5052</v>
       </c>
-      <c r="D2272" s="5"/>
+      <c r="D2272" s="5" t="s">
+        <v>5104</v>
+      </c>
       <c r="E2272" s="5"/>
       <c r="F2272" s="7" t="s">
         <v>84</v>
@@ -61257,7 +61446,9 @@
       <c r="C2273" s="5" t="s">
         <v>5053</v>
       </c>
-      <c r="D2273" s="5"/>
+      <c r="D2273" s="5" t="s">
+        <v>5105</v>
+      </c>
       <c r="E2273" s="5" t="s">
         <v>115</v>
       </c>
@@ -61274,7 +61465,9 @@
       <c r="C2274" s="5" t="s">
         <v>5055</v>
       </c>
-      <c r="D2274" s="5"/>
+      <c r="D2274" s="5" t="s">
+        <v>5106</v>
+      </c>
       <c r="E2274" s="5" t="s">
         <v>5013</v>
       </c>
@@ -61291,7 +61484,9 @@
       <c r="C2275" s="5" t="s">
         <v>1764</v>
       </c>
-      <c r="D2275" s="5"/>
+      <c r="D2275" s="5" t="s">
+        <v>5107</v>
+      </c>
       <c r="E2275" s="5" t="s">
         <v>5013</v>
       </c>
@@ -61308,7 +61503,9 @@
       <c r="C2276" s="5" t="s">
         <v>5056</v>
       </c>
-      <c r="D2276" s="5"/>
+      <c r="D2276" s="5" t="s">
+        <v>5108</v>
+      </c>
       <c r="E2276" s="5"/>
       <c r="F2276" s="7" t="s">
         <v>84</v>
@@ -61323,7 +61520,9 @@
       <c r="C2277" s="5" t="s">
         <v>5057</v>
       </c>
-      <c r="D2277" s="5"/>
+      <c r="D2277" s="5" t="s">
+        <v>5109</v>
+      </c>
       <c r="E2277" s="5"/>
       <c r="F2277" s="7" t="s">
         <v>84</v>
@@ -61338,7 +61537,9 @@
       <c r="C2278" s="5" t="s">
         <v>5058</v>
       </c>
-      <c r="D2278" s="5"/>
+      <c r="D2278" s="5" t="s">
+        <v>5110</v>
+      </c>
       <c r="E2278" s="5"/>
       <c r="F2278" s="7" t="s">
         <v>84</v>
@@ -61353,7 +61554,9 @@
       <c r="C2279" s="5" t="s">
         <v>5059</v>
       </c>
-      <c r="D2279" s="5"/>
+      <c r="D2279" s="5" t="s">
+        <v>5111</v>
+      </c>
       <c r="E2279" s="5"/>
       <c r="F2279" s="7" t="s">
         <v>84</v>
@@ -61368,7 +61571,9 @@
       <c r="C2280" s="5" t="s">
         <v>5060</v>
       </c>
-      <c r="D2280" s="5"/>
+      <c r="D2280" s="5" t="s">
+        <v>5112</v>
+      </c>
       <c r="E2280" s="5" t="s">
         <v>133</v>
       </c>
@@ -61385,7 +61590,9 @@
       <c r="C2281" s="5" t="s">
         <v>5062</v>
       </c>
-      <c r="D2281" s="5"/>
+      <c r="D2281" s="5" t="s">
+        <v>5113</v>
+      </c>
       <c r="E2281" s="5" t="s">
         <v>5013</v>
       </c>
@@ -61402,7 +61609,9 @@
       <c r="C2282" s="5" t="s">
         <v>1070</v>
       </c>
-      <c r="D2282" s="5"/>
+      <c r="D2282" s="5" t="s">
+        <v>5114</v>
+      </c>
       <c r="E2282" s="5"/>
       <c r="F2282" s="7" t="s">
         <v>4650</v>
@@ -61417,7 +61626,9 @@
       <c r="C2283" s="5" t="s">
         <v>5063</v>
       </c>
-      <c r="D2283" s="5"/>
+      <c r="D2283" s="5" t="s">
+        <v>5115</v>
+      </c>
       <c r="E2283" s="5"/>
       <c r="F2283" s="7" t="s">
         <v>4650</v>
@@ -61432,7 +61643,9 @@
       <c r="C2284" s="5" t="s">
         <v>5064</v>
       </c>
-      <c r="D2284" s="5"/>
+      <c r="D2284" s="5" t="s">
+        <v>5116</v>
+      </c>
       <c r="E2284" s="5"/>
       <c r="F2284" s="7" t="s">
         <v>4650</v>
@@ -61447,7 +61660,9 @@
       <c r="C2285" s="5" t="s">
         <v>5065</v>
       </c>
-      <c r="D2285" s="5"/>
+      <c r="D2285" s="5" t="s">
+        <v>5117</v>
+      </c>
       <c r="E2285" s="5"/>
       <c r="F2285" s="7" t="s">
         <v>4650</v>
@@ -61462,7 +61677,9 @@
       <c r="C2286" s="5" t="s">
         <v>5066</v>
       </c>
-      <c r="D2286" s="5"/>
+      <c r="D2286" s="5" t="s">
+        <v>5118</v>
+      </c>
       <c r="E2286" s="5"/>
       <c r="F2286" s="7" t="s">
         <v>4650</v>
@@ -61477,7 +61694,9 @@
       <c r="C2287" s="5" t="s">
         <v>5068</v>
       </c>
-      <c r="D2287" s="5"/>
+      <c r="D2287" s="5" t="s">
+        <v>5119</v>
+      </c>
       <c r="E2287" s="5" t="s">
         <v>5013</v>
       </c>
@@ -61494,7 +61713,9 @@
       <c r="C2288" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="D2288" s="5"/>
+      <c r="D2288" s="5" t="s">
+        <v>5120</v>
+      </c>
       <c r="E2288" s="5" t="s">
         <v>5013</v>
       </c>
@@ -61511,7 +61732,9 @@
       <c r="C2289" s="5" t="s">
         <v>4749</v>
       </c>
-      <c r="D2289" s="5"/>
+      <c r="D2289" s="5" t="s">
+        <v>5121</v>
+      </c>
       <c r="E2289" s="5"/>
       <c r="F2289" s="7" t="s">
         <v>53</v>
@@ -61526,7 +61749,9 @@
       <c r="C2290" s="5" t="s">
         <v>5069</v>
       </c>
-      <c r="D2290" s="5"/>
+      <c r="D2290" s="5" t="s">
+        <v>5122</v>
+      </c>
       <c r="E2290" s="5"/>
       <c r="F2290" s="7" t="s">
         <v>53</v>
@@ -61541,7 +61766,9 @@
       <c r="C2291" s="5" t="s">
         <v>5070</v>
       </c>
-      <c r="D2291" s="5"/>
+      <c r="D2291" s="5" t="s">
+        <v>5123</v>
+      </c>
       <c r="E2291" s="5"/>
       <c r="F2291" s="7" t="s">
         <v>53</v>
@@ -61556,7 +61783,9 @@
       <c r="C2292" s="5" t="s">
         <v>5071</v>
       </c>
-      <c r="D2292" s="5"/>
+      <c r="D2292" s="5" t="s">
+        <v>5124</v>
+      </c>
       <c r="E2292" s="5"/>
       <c r="F2292" s="7" t="s">
         <v>53</v>
@@ -61571,7 +61800,9 @@
       <c r="C2293" s="5" t="s">
         <v>5073</v>
       </c>
-      <c r="D2293" s="5"/>
+      <c r="D2293" s="5" t="s">
+        <v>5125</v>
+      </c>
       <c r="E2293" s="5" t="s">
         <v>5013</v>
       </c>
@@ -61588,7 +61819,9 @@
       <c r="C2294" s="5" t="s">
         <v>5074</v>
       </c>
-      <c r="D2294" s="5"/>
+      <c r="D2294" s="5" t="s">
+        <v>5126</v>
+      </c>
       <c r="E2294" s="5"/>
       <c r="F2294" s="7" t="s">
         <v>311</v>
@@ -61603,7 +61836,9 @@
       <c r="C2295" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="D2295" s="5"/>
+      <c r="D2295" s="5" t="s">
+        <v>5127</v>
+      </c>
       <c r="E2295" s="5"/>
       <c r="F2295" s="7" t="s">
         <v>311</v>
@@ -61618,7 +61853,9 @@
       <c r="C2296" s="5" t="s">
         <v>4787</v>
       </c>
-      <c r="D2296" s="5"/>
+      <c r="D2296" s="5" t="s">
+        <v>5128</v>
+      </c>
       <c r="E2296" s="5"/>
       <c r="F2296" s="7" t="s">
         <v>311</v>
@@ -61633,7 +61870,9 @@
       <c r="C2297" s="5" t="s">
         <v>5075</v>
       </c>
-      <c r="D2297" s="5"/>
+      <c r="D2297" s="5" t="s">
+        <v>5129</v>
+      </c>
       <c r="E2297" s="5"/>
       <c r="F2297" s="7" t="s">
         <v>311</v>
@@ -61648,7 +61887,9 @@
       <c r="C2298" s="5" t="s">
         <v>5076</v>
       </c>
-      <c r="D2298" s="5"/>
+      <c r="D2298" s="5" t="s">
+        <v>5130</v>
+      </c>
       <c r="E2298" s="5"/>
       <c r="F2298" s="7" t="s">
         <v>311</v>
@@ -61663,7 +61904,9 @@
       <c r="C2299" s="5" t="s">
         <v>4692</v>
       </c>
-      <c r="D2299" s="5"/>
+      <c r="D2299" s="5" t="s">
+        <v>5131</v>
+      </c>
       <c r="E2299" s="5" t="s">
         <v>5013</v>
       </c>
@@ -61680,7 +61923,9 @@
       <c r="C2300" s="5" t="s">
         <v>5078</v>
       </c>
-      <c r="D2300" s="5"/>
+      <c r="D2300" s="5" t="s">
+        <v>5132</v>
+      </c>
       <c r="E2300" s="5" t="s">
         <v>5013</v>
       </c>
@@ -61697,7 +61942,9 @@
       <c r="C2301" s="5" t="s">
         <v>5079</v>
       </c>
-      <c r="D2301" s="5"/>
+      <c r="D2301" s="5" t="s">
+        <v>5133</v>
+      </c>
       <c r="E2301" s="5"/>
       <c r="F2301" s="7" t="s">
         <v>148</v>
@@ -61712,7 +61959,9 @@
       <c r="C2302" s="5" t="s">
         <v>5080</v>
       </c>
-      <c r="D2302" s="5"/>
+      <c r="D2302" s="5" t="s">
+        <v>5134</v>
+      </c>
       <c r="E2302" s="5"/>
       <c r="F2302" s="7" t="s">
         <v>148</v>
@@ -61727,7 +61976,9 @@
       <c r="C2303" s="5" t="s">
         <v>5081</v>
       </c>
-      <c r="D2303" s="5"/>
+      <c r="D2303" s="5" t="s">
+        <v>5135</v>
+      </c>
       <c r="E2303" s="5"/>
       <c r="F2303" s="7" t="s">
         <v>148</v>
@@ -61742,7 +61993,9 @@
       <c r="C2304" s="5" t="s">
         <v>5082</v>
       </c>
-      <c r="D2304" s="5"/>
+      <c r="D2304" s="5" t="s">
+        <v>5136</v>
+      </c>
       <c r="E2304" s="5"/>
       <c r="F2304" s="7" t="s">
         <v>148</v>
@@ -61757,7 +62010,9 @@
       <c r="C2305" s="5" t="s">
         <v>5083</v>
       </c>
-      <c r="D2305" s="5"/>
+      <c r="D2305" s="5" t="s">
+        <v>5137</v>
+      </c>
       <c r="E2305" s="5"/>
       <c r="F2305" s="7" t="s">
         <v>148</v>
@@ -61772,7 +62027,9 @@
       <c r="C2306" s="5" t="s">
         <v>5085</v>
       </c>
-      <c r="D2306" s="5"/>
+      <c r="D2306" s="5" t="s">
+        <v>5138</v>
+      </c>
       <c r="E2306" s="5"/>
       <c r="F2306" s="7" t="s">
         <v>5086</v>
@@ -61787,7 +62044,9 @@
       <c r="C2307" s="5" t="s">
         <v>5087</v>
       </c>
-      <c r="D2307" s="5"/>
+      <c r="D2307" s="5" t="s">
+        <v>5139</v>
+      </c>
       <c r="E2307" s="5"/>
       <c r="F2307" s="7" t="s">
         <v>5086</v>
@@ -61802,7 +62061,9 @@
       <c r="C2308" s="5" t="s">
         <v>922</v>
       </c>
-      <c r="D2308" s="5"/>
+      <c r="D2308" s="5" t="s">
+        <v>5140</v>
+      </c>
       <c r="E2308" s="5"/>
       <c r="F2308" s="7" t="s">
         <v>5086</v>
@@ -61817,7 +62078,9 @@
       <c r="C2309" s="5" t="s">
         <v>5088</v>
       </c>
-      <c r="D2309" s="5"/>
+      <c r="D2309" s="5" t="s">
+        <v>5141</v>
+      </c>
       <c r="E2309" s="5" t="s">
         <v>283</v>
       </c>
@@ -61834,7 +62097,9 @@
       <c r="C2310" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D2310" s="5"/>
+      <c r="D2310" s="5" t="s">
+        <v>5142</v>
+      </c>
       <c r="E2310" s="5" t="s">
         <v>5089</v>
       </c>
@@ -61851,7 +62116,9 @@
       <c r="C2311" s="5" t="s">
         <v>5090</v>
       </c>
-      <c r="D2311" s="5"/>
+      <c r="D2311" s="5" t="s">
+        <v>5143</v>
+      </c>
       <c r="E2311" s="5" t="s">
         <v>5089</v>
       </c>
@@ -61868,7 +62135,9 @@
       <c r="C2312" s="5" t="s">
         <v>5092</v>
       </c>
-      <c r="D2312" s="5"/>
+      <c r="D2312" s="5" t="s">
+        <v>5144</v>
+      </c>
       <c r="E2312" s="5" t="s">
         <v>5013</v>
       </c>
@@ -61885,7 +62154,9 @@
       <c r="C2313" s="5" t="s">
         <v>5094</v>
       </c>
-      <c r="D2313" s="5"/>
+      <c r="D2313" s="5" t="s">
+        <v>5145</v>
+      </c>
       <c r="E2313" s="5" t="s">
         <v>5013</v>
       </c>
@@ -61902,7 +62173,9 @@
       <c r="C2314" s="5" t="s">
         <v>5095</v>
       </c>
-      <c r="D2314" s="5"/>
+      <c r="D2314" s="5" t="s">
+        <v>5146</v>
+      </c>
       <c r="E2314" s="5" t="s">
         <v>5013</v>
       </c>
@@ -61919,7 +62192,9 @@
       <c r="C2315" s="5" t="s">
         <v>5096</v>
       </c>
-      <c r="D2315" s="5"/>
+      <c r="D2315" s="5" t="s">
+        <v>5147</v>
+      </c>
       <c r="E2315" s="5" t="s">
         <v>65</v>
       </c>
@@ -61938,7 +62213,9 @@
       <c r="C2316" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="D2316" s="5"/>
+      <c r="D2316" s="5" t="s">
+        <v>5148</v>
+      </c>
       <c r="E2316" s="5"/>
       <c r="F2316" s="7" t="s">
         <v>5093</v>
@@ -61953,7 +62230,9 @@
       <c r="C2317" s="5" t="s">
         <v>5097</v>
       </c>
-      <c r="D2317" s="5"/>
+      <c r="D2317" s="5" t="s">
+        <v>5149</v>
+      </c>
       <c r="E2317" s="5" t="s">
         <v>4771</v>
       </c>
@@ -61970,7 +62249,9 @@
       <c r="C2318" s="5" t="s">
         <v>5098</v>
       </c>
-      <c r="D2318" s="5"/>
+      <c r="D2318" s="5" t="s">
+        <v>5150</v>
+      </c>
       <c r="E2318" s="5"/>
       <c r="F2318" s="7" t="s">
         <v>5093</v>
@@ -61985,12 +62266,129 @@
       <c r="C2319" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="D2319" s="20"/>
+      <c r="D2319" s="20" t="s">
+        <v>5151</v>
+      </c>
       <c r="E2319" s="20"/>
       <c r="F2319" s="21" t="s">
         <v>5093</v>
       </c>
       <c r="G2319" s="22"/>
+    </row>
+    <row r="2320" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2320" s="19" t="s">
+        <v>5152</v>
+      </c>
+      <c r="B2320" s="20"/>
+      <c r="C2320" s="5" t="s">
+        <v>5153</v>
+      </c>
+      <c r="D2320" s="20"/>
+      <c r="E2320" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2320" s="21" t="s">
+        <v>5156</v>
+      </c>
+      <c r="G2320" s="22" t="s">
+        <v>4802</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2321" s="19" t="s">
+        <v>5152</v>
+      </c>
+      <c r="B2321" s="20"/>
+      <c r="C2321" s="20" t="s">
+        <v>5154</v>
+      </c>
+      <c r="D2321" s="20"/>
+      <c r="E2321" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2321" s="21" t="s">
+        <v>5156</v>
+      </c>
+      <c r="G2321" s="22" t="s">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2322" s="19" t="s">
+        <v>5152</v>
+      </c>
+      <c r="B2322" s="20"/>
+      <c r="C2322" s="20" t="s">
+        <v>5155</v>
+      </c>
+      <c r="D2322" s="20"/>
+      <c r="E2322" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2322" s="21" t="s">
+        <v>5156</v>
+      </c>
+      <c r="G2322" s="22" t="s">
+        <v>4798</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2323" s="19" t="s">
+        <v>5152</v>
+      </c>
+      <c r="B2323" s="20"/>
+      <c r="C2323" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2323" s="20"/>
+      <c r="E2323" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2323" s="21" t="s">
+        <v>5156</v>
+      </c>
+      <c r="G2323" s="22" t="s">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2324" s="19"/>
+      <c r="B2324" s="20"/>
+      <c r="C2324" s="20" t="s">
+        <v>5157</v>
+      </c>
+      <c r="D2324" s="20"/>
+      <c r="E2324" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2324" s="21"/>
+      <c r="G2324" s="22"/>
+    </row>
+    <row r="2325" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2325" s="19"/>
+      <c r="B2325" s="20"/>
+      <c r="C2325" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="D2325" s="20"/>
+      <c r="E2325" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2325" s="21"/>
+      <c r="G2325" s="22"/>
+    </row>
+    <row r="2326" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2326" s="19"/>
+      <c r="B2326" s="20"/>
+      <c r="C2326" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2326" s="20"/>
+      <c r="E2326" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2326" s="21"/>
+      <c r="G2326" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
